--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail0 Features.xlsx
@@ -4328,7 +4328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,29 +4339,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4382,115 +4380,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4507,72 +4495,66 @@
         <v>1.890453170847673e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.796811994164208</v>
+        <v>1.232041297243488e-05</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.88396975657643</v>
+        <v>1.457000131530897e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.232041297243488e-05</v>
+        <v>-0.108378760941052</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.457000131530897e-06</v>
+        <v>0.3167111611072596</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.108378760941052</v>
+        <v>0.1117900218957458</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3167111611072596</v>
+        <v>1.897189996030668</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1117900218957458</v>
+        <v>1.710635422217494</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.892694087025517</v>
+        <v>4.048803144796287</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.710635422217494</v>
+        <v>8.76902984318819e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.048803144796287</v>
+        <v>600332455.0524486</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.76902984318819e-17</v>
+        <v>1.992989117040272e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>600332455.0524486</v>
+        <v>31.60350082688443</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.992989117040272e-07</v>
+        <v>0.0002252623938501379</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>31.60350082688443</v>
+        <v>13.86094744993718</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002252623938501379</v>
+        <v>0.9645844892443385</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.86094744993718</v>
+        <v>0.0432787320924531</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.9645844892443385</v>
+        <v>2.327860795186874</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0432787320924531</v>
+        <v>0.9592511211152346</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.327860795186874</v>
+        <v>1.387018992533956</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9592511211152346</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.387018992533956</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5469588280615909</v>
       </c>
     </row>
@@ -4587,72 +4569,66 @@
         <v>1.376453520161142e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.806967203222333</v>
+        <v>8.991073036352424e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.96307185746913</v>
+        <v>1.281543276128638e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.991073036352424e-06</v>
+        <v>-0.108452729211916</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.281543276128638e-06</v>
+        <v>0.3179440332183731</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.108452729211916</v>
+        <v>0.1125763115061106</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3179440332183731</v>
+        <v>1.905423648757562</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1125763115061106</v>
+        <v>1.796456938006351</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.903896025410828</v>
+        <v>3.866068872015588</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.796456938006351</v>
+        <v>8.294124781439117e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.866068872015588</v>
+        <v>616299400.4169211</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.294124781439117e-17</v>
+        <v>1.932724630034991e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>616299400.4169211</v>
+        <v>31.50315538318596</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.932724630034991e-07</v>
+        <v>0.0002275297259154226</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>31.50315538318596</v>
+        <v>13.60211959611685</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002275297259154226</v>
+        <v>0.9767967424015296</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.60211959611685</v>
+        <v>0.04209701690209624</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9767967424015296</v>
+        <v>2.261430291973348</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04209701690209624</v>
+        <v>0.9583495352941342</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.261430291973348</v>
+        <v>1.333016612086421</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9583495352941342</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.333016612086421</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5141046387060528</v>
       </c>
     </row>
@@ -4667,72 +4643,66 @@
         <v>1.000927433943412e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.82018172114601</v>
+        <v>6.557392963579422e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15.06747399442313</v>
+        <v>1.153805054611277e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.557392963579422e-06</v>
+        <v>-0.1085007499230147</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.153805054611277e-06</v>
+        <v>0.3194702520727466</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1085007499230147</v>
+        <v>0.1135569814055895</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3194702520727466</v>
+        <v>1.851150264441989</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1135569814055895</v>
+        <v>1.729886451813748</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.830311264942243</v>
+        <v>4.450050237266597</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.729886451813748</v>
+        <v>7.81584916428187e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.450050237266597</v>
+        <v>652001323.7351362</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.81584916428187e-17</v>
+        <v>1.796865309390395e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>652001323.7351362</v>
+        <v>33.22562234479437</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.796865309390395e-07</v>
+        <v>0.0002274436363092154</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>33.22562234479437</v>
+        <v>12.53243051124441</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002274436363092154</v>
+        <v>1.100704959738464</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.53243051124441</v>
+        <v>0.03572271021956351</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.100704959738464</v>
+        <v>2.495511396273423</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03572271021956351</v>
+        <v>0.9564931688441757</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.495511396273423</v>
+        <v>1.515612243070822</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9564931688441757</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.515612243070822</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.5163188945281767</v>
       </c>
     </row>
@@ -4747,72 +4717,66 @@
         <v>7.266174697990231e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.837076624100302</v>
+        <v>4.779464780353414e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>15.20354057596084</v>
+        <v>1.06093925304667e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.779464780353414e-06</v>
+        <v>-0.108576990683517</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.06093925304667e-06</v>
+        <v>0.3215093173139735</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.108576990683517</v>
+        <v>0.1148770204924669</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3215093173139735</v>
+        <v>1.830547022048619</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1148770204924669</v>
+        <v>1.821331661680264</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.798231285256517</v>
+        <v>4.509523601872441</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.821331661680264</v>
+        <v>1.147324118569538e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.509523601872441</v>
+        <v>453842835.739782</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.147324118569538e-16</v>
+        <v>2.567411430712613e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>453842835.739782</v>
+        <v>23.6318157304215</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.567411430712613e-07</v>
+        <v>0.0002767208146336061</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>23.6318157304215</v>
+        <v>10.13745851498942</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002767208146336061</v>
+        <v>1.699426525827229</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.13745851498942</v>
+        <v>0.02843806270472685</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.699426525827229</v>
+        <v>2.620010750805499</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02843806270472685</v>
+        <v>0.9577239438765592</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.620010750805499</v>
+        <v>1.644720669891577</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9577239438765592</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.644720669891577</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.310228371437678</v>
       </c>
     </row>
@@ -4827,72 +4791,66 @@
         <v>5.263154861176243e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.858119294897107</v>
+        <v>3.480753117478537e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15.37775519314215</v>
+        <v>9.935293202715625e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.480753117478537e-06</v>
+        <v>-0.1087043091287931</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>9.935293202715625e-07</v>
+        <v>0.3242047463552993</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1087043091287931</v>
+        <v>0.1166404323393859</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3242047463552993</v>
+        <v>1.810850154791079</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1166404323393859</v>
+        <v>1.816407476441754</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.767582906592156</v>
+        <v>4.445059940961594</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.816407476441754</v>
+        <v>1.180843132807432e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.445059940961594</v>
+        <v>441006121.8858604</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.180843132807432e-16</v>
+        <v>2.635233482073628e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>441006121.8858604</v>
+        <v>22.96579293222038</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.635233482073628e-07</v>
+        <v>0.0001840290832624169</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>22.96579293222038</v>
+        <v>10.19188041512617</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001840290832624169</v>
+        <v>1.413186773573043</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.19188041512617</v>
+        <v>0.01911591546410803</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.413186773573043</v>
+        <v>2.939294044477775</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01911591546410803</v>
+        <v>0.9563326494319465</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.939294044477775</v>
+        <v>1.657851719304687</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9563326494319465</v>
+        <v>18</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.657851719304687</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2447799219194828</v>
       </c>
     </row>
@@ -4907,72 +4865,66 @@
         <v>3.801435141324565e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.8833585857161</v>
+        <v>2.532308414452753e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>15.59615507299298</v>
+        <v>9.447000477823326e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.532308414452753e-06</v>
+        <v>-0.108868415209708</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>9.447000477823326e-07</v>
+        <v>0.3277572028454973</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.108868415209708</v>
+        <v>0.1189859211737583</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3277572028454973</v>
+        <v>1.814102782090329</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1189859211737583</v>
+        <v>1.858629070502164</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.772187040418284</v>
+        <v>4.500607056683211</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.858629070502164</v>
+        <v>1.151874749699677e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.500607056683211</v>
+        <v>456969133.3593516</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.151874749699677e-16</v>
+        <v>2.549883250592626e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>456969133.3593516</v>
+        <v>24.05353938808464</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.549883250592626e-07</v>
+        <v>0.0001418548605476933</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>24.05353938808464</v>
+        <v>10.29391816551882</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001418548605476933</v>
+        <v>1.157403481623888</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.29391816551882</v>
+        <v>0.0150316150042198</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.157403481623888</v>
+        <v>2.917552944126019</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0150316150042198</v>
+        <v>0.9558523684791759</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.917552944126019</v>
+        <v>1.644882809009527</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9558523684791759</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.644882809009527</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2292732800443779</v>
       </c>
     </row>
@@ -4987,72 +4939,66 @@
         <v>2.735768721509042e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.911617643578278</v>
+        <v>1.839936077836356e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>15.86098154911772</v>
+        <v>9.094307951771498e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.839936077836356e-06</v>
+        <v>-0.1090779236174969</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>9.094307951771498e-07</v>
+        <v>0.3324275461188915</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.1090779236174969</v>
+        <v>0.1221065645169716</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3324275461188915</v>
+        <v>1.817204840797056</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1221065645169716</v>
+        <v>1.799367734317105</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.773014970385077</v>
+        <v>4.42086261033027</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.799367734317105</v>
+        <v>1.193805059579328e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.42086261033027</v>
+        <v>448415646.9477287</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.193805059579328e-16</v>
+        <v>2.610018926247816e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>448415646.9477287</v>
+        <v>24.00462534029797</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.610018926247816e-07</v>
+        <v>0.0001339499003157711</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>24.00462534029797</v>
+        <v>9.704760470496803</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001339499003157711</v>
+        <v>1.187449183891119</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.704760470496803</v>
+        <v>0.01261571984853513</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.187449183891119</v>
+        <v>2.838900076918668</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01261571984853513</v>
+        <v>0.9562798997171625</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.838900076918668</v>
+        <v>1.653299717235775</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9562798997171625</v>
+        <v>16</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.653299717235775</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2218126948356149</v>
       </c>
     </row>
@@ -5067,72 +5013,66 @@
         <v>1.960060044368263e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.938515365808727</v>
+        <v>1.334797223073835e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>16.16080965516953</v>
+        <v>8.840467912018541e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.334797223073835e-06</v>
+        <v>-0.1093304563102292</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.840467912018541e-07</v>
+        <v>0.3385632371599288</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.1093304563102292</v>
+        <v>0.1262678172285029</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3385632371599288</v>
+        <v>1.819462453301302</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1262678172285029</v>
+        <v>1.760931091712598</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.770732113881476</v>
+        <v>4.396646866353334</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.760931091712598</v>
+        <v>1.206991694925176e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.396646866353334</v>
+        <v>443386969.2067932</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.206991694925176e-16</v>
+        <v>2.634401957290414e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>443386969.2067932</v>
+        <v>23.72849166747929</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.634401957290414e-07</v>
+        <v>0.0001235511670695608</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>23.72849166747929</v>
+        <v>8.406574678751136</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001235511670695608</v>
+        <v>1.21036925539281</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.406574678751136</v>
+        <v>0.008731422484211672</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.21036925539281</v>
+        <v>3.020184664487623</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008731422484211672</v>
+        <v>0.9565856574340913</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.020184664487623</v>
+        <v>1.650901522688905</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9565856574340913</v>
+        <v>8</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.650901522688905</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2195959094205489</v>
       </c>
     </row>
@@ -5147,72 +5087,66 @@
         <v>1.396860364656161e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.951687629366407</v>
+        <v>9.664911402182156e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>16.4424877601871</v>
+        <v>8.658646176384555e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.664911402182156e-07</v>
+        <v>-0.109535404775692</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.658646176384555e-07</v>
+        <v>0.346571249605458</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.109535404775692</v>
+        <v>0.1317847522243159</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.346571249605458</v>
+        <v>1.818666752254086</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1317847522243159</v>
+        <v>1.754780949783166</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.768306039353923</v>
+        <v>4.391352782886272</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.754780949783166</v>
+        <v>1.209903675282069e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.391352782886272</v>
+        <v>436877079.1762434</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.209903675282069e-16</v>
+        <v>2.676904873071897e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>436877079.1762434</v>
+        <v>23.09241299064946</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.676904873071897e-07</v>
+        <v>0.0001283332380015453</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>23.09241299064946</v>
+        <v>7.33473876358346</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001283332380015453</v>
+        <v>1.802301938223942</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.33473876358346</v>
+        <v>0.006904121938321468</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.802301938223942</v>
+        <v>3.228260534369305</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006904121938321468</v>
+        <v>0.9560436828744743</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.228260534369305</v>
+        <v>1.628694173834891</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9560436828744743</v>
+        <v>8</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.628694173834891</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2078507903149557</v>
       </c>
     </row>
@@ -5227,72 +5161,66 @@
         <v>9.899153645715914e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3.920809267587152</v>
+        <v>6.980371999113814e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>16.55183130563698</v>
+        <v>8.529327442823339e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.980371999113814e-07</v>
+        <v>-0.1093944779651115</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.529327442823339e-07</v>
+        <v>0.3566338997935141</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.1093944779651115</v>
+        <v>0.1388115477957858</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3566338997935141</v>
+        <v>1.817808243281049</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1388115477957858</v>
+        <v>1.759153685644255</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.767858561401675</v>
+        <v>4.367090023093297</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.759153685644255</v>
+        <v>1.223385032107876e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.367090023093297</v>
+        <v>431426970.8997675</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.223385032107876e-16</v>
+        <v>2.706874326743649e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>431426970.8997675</v>
+        <v>22.77077155119866</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.706874326743649e-07</v>
+        <v>0.0001466680489363141</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>22.77077155119866</v>
+        <v>8.685622191621722</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001466680489363141</v>
+        <v>1.743139414060344</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.685622191621722</v>
+        <v>0.01106464243062107</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.743139414060344</v>
+        <v>3.18599851257156</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01106464243062107</v>
+        <v>0.9553128083137804</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.18599851257156</v>
+        <v>1.662693843331897</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9553128083137804</v>
+        <v>8</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.662693843331897</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2024722962093351</v>
       </c>
     </row>
@@ -5307,72 +5235,66 @@
         <v>6.986259588333897e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3.776663106402763</v>
+        <v>5.025286628869934e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>16.10114281747627</v>
+        <v>8.43830934150517e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.025286628869934e-07</v>
+        <v>-0.1083511623514621</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.43830934150517e-07</v>
+        <v>0.3683920748878816</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.1083511623514621</v>
+        <v>0.1470863767498822</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3683920748878816</v>
+        <v>1.807213351456216</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1470863767498822</v>
+        <v>1.741539176465311</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.753087850752662</v>
+        <v>4.354324465352128</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.741539176465311</v>
+        <v>1.230568734115093e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.354324465352128</v>
+        <v>423204660.4697581</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.230568734115093e-16</v>
+        <v>2.74903965890034e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>423204660.4697581</v>
+        <v>22.03975486337819</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.74903965890034e-07</v>
+        <v>0.0001332754096582426</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.03975486337819</v>
+        <v>10.00613510468398</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001332754096582426</v>
+        <v>1.214717806929152</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.00613510468398</v>
+        <v>0.01334389915404639</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.214717806929152</v>
+        <v>3.026686791130102</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01334389915404639</v>
+        <v>0.9525504940238613</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.026686791130102</v>
+        <v>1.683676559820791</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9525504940238613</v>
+        <v>11</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.683676559820791</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2123990896908282</v>
       </c>
     </row>
@@ -5387,72 +5309,66 @@
         <v>4.943154874629661e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3.384546633243838</v>
+        <v>3.599037898565933e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>14.31035837629907</v>
+        <v>8.375179139590428e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.599037898565933e-07</v>
+        <v>-0.1051814185751677</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.375179139590428e-07</v>
+        <v>0.3784602073168782</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.1051814185751677</v>
+        <v>0.1539058743162842</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3784602073168782</v>
+        <v>1.800839058959471</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.1539058743162842</v>
+        <v>1.697705096853313</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.74007448803146</v>
+        <v>4.343092499660377</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.697705096853313</v>
+        <v>1.236941878794281e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.343092499660377</v>
+        <v>401834333.1352693</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.236941878794281e-16</v>
+        <v>2.872538878627568e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>401834333.1352693</v>
+        <v>19.97300334217091</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.872538878627568e-07</v>
+        <v>0.0001308473342162143</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>19.97300334217091</v>
+        <v>9.683472266495135</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001308473342162143</v>
+        <v>1.161806117762191</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.683472266495135</v>
+        <v>0.0122695067879701</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.161806117762191</v>
+        <v>2.874905088582149</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0122695067879701</v>
+        <v>0.9528943375195126</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.874905088582149</v>
+        <v>1.683219362560561</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9528943375195126</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.683219362560561</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2132886147456852</v>
       </c>
     </row>
@@ -5467,72 +5383,66 @@
         <v>3.570769888452259e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.57385063198065</v>
+        <v>2.562006746461125e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>10.31728526231197</v>
+        <v>8.332312500642828e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.562006746461125e-07</v>
+        <v>-0.09741675253528573</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.332312500642828e-07</v>
+        <v>0.3795457764821314</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.09741675253528573</v>
+        <v>0.1531538706916459</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3795457764821314</v>
+        <v>1.792382487640248</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.1531538706916459</v>
+        <v>1.672008604116892</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.731182142318909</v>
+        <v>4.394775378749753</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.672008604116892</v>
+        <v>1.20801989353047e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.394775378749753</v>
+        <v>409241477.5059809</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.20801989353047e-16</v>
+        <v>2.812363918698579e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>409241477.5059809</v>
+        <v>20.23174647291959</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.812363918698579e-07</v>
+        <v>0.0001234016687857638</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>20.23174647291959</v>
+        <v>8.258275212088277</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001234016687857638</v>
+        <v>1.210857297689584</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.258275212088277</v>
+        <v>0.008415883919361216</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.210857297689584</v>
+        <v>3.027678704294118</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008415883919361216</v>
+        <v>0.9542960446077321</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.027678704294118</v>
+        <v>1.677816444602328</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9542960446077321</v>
+        <v>18</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.677816444602328</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2144478811456836</v>
       </c>
     </row>
@@ -5547,72 +5457,66 @@
         <v>2.720327526598368e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.361921317315404</v>
+        <v>1.814551628371218e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4.671604341230093</v>
+        <v>8.304141796971856e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.814551628371218e-07</v>
+        <v>-0.08203327118561493</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.304141796971856e-07</v>
+        <v>0.3612778677169329</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.08203327118561493</v>
+        <v>0.136903845282509</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3612778677169329</v>
+        <v>1.788696842175951</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.136903845282509</v>
+        <v>1.64074234331267</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.728202460196757</v>
+        <v>4.490921406083362</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.64074234331267</v>
+        <v>1.156848645357485e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.490921406083362</v>
+        <v>427496526.522524</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.156848645357485e-16</v>
+        <v>2.689283574767274e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>427496526.522524</v>
+        <v>21.14178846210768</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.689283574767274e-07</v>
+        <v>0.0001148475054600318</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>21.14178846210768</v>
+        <v>6.831502271935832</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001148475054600318</v>
+        <v>1.428585671349252</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.831502271935832</v>
+        <v>0.005359866846282996</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.428585671349252</v>
+        <v>3.208869878293261</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005359866846282996</v>
+        <v>0.9534844667695275</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.208869878293261</v>
+        <v>1.680785258048959</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9534844667695275</v>
+        <v>18</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.680785258048959</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2281770581924144</v>
       </c>
     </row>
@@ -5627,72 +5531,66 @@
         <v>2.260357274100848e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.243199753774978</v>
+        <v>1.280934739292817e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.3689258826247754</v>
+        <v>8.286584517453148e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.280934739292817e-07</v>
+        <v>-0.05922935467819235</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.286584517453148e-07</v>
+        <v>0.3181717300597686</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05922935467819235</v>
+        <v>0.1044889989141782</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3181717300597686</v>
+        <v>1.77344539791633</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.1044889989141782</v>
+        <v>1.629981287535867</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.710897185698292</v>
+        <v>4.740583206081597</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.629981287535867</v>
+        <v>1.038206884604088e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.740583206081597</v>
+        <v>486644304.3031392</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.038206884604088e-16</v>
+        <v>2.354614419829999e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>486644304.3031392</v>
+        <v>24.58709356754578</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.354614419829999e-07</v>
+        <v>0.0001172263182241306</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>24.58709356754578</v>
+        <v>6.964795335919917</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001172263182241306</v>
+        <v>2.266977751408332</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.964795335919917</v>
+        <v>0.00568645809541173</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.266977751408332</v>
+        <v>3.350424967626511</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00568645809541173</v>
+        <v>0.9545956021746195</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.350424967626511</v>
+        <v>1.692943436995991</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9545956021746195</v>
+        <v>19</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.692943436995991</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2572407200851741</v>
       </c>
     </row>
@@ -5707,72 +5605,66 @@
         <v>2.055357583349059e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.3090588304994214</v>
+        <v>9.071697932357665e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.092611549613094</v>
+        <v>8.27648240311631e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.071697932357665e-08</v>
+        <v>-0.03538270596235094</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.27648240311631e-07</v>
+        <v>0.263730649360721</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03538270596235094</v>
+        <v>0.07065942177861201</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.263730649360721</v>
+        <v>1.770890526507445</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.07065942177861201</v>
+        <v>1.64042072814019</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.707518894081091</v>
+        <v>5.01937817014404</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.64042072814019</v>
+        <v>9.26078105580541e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.01937817014404</v>
+        <v>556645434.1499795</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.26078105580541e-17</v>
+        <v>2.063984266436204e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>556645434.1499795</v>
+        <v>28.69491343848154</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.063984266436204e-07</v>
+        <v>0.0001161452653141683</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>28.69491343848154</v>
+        <v>9.413632785485117</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001161452653141683</v>
+        <v>1.783159359468625</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.413632785485117</v>
+        <v>0.01029238483864556</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.783159359468625</v>
+        <v>3.345439146495102</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01029238483864556</v>
+        <v>0.9533857424375672</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.345439146495102</v>
+        <v>1.673552174855521</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9533857424375672</v>
+        <v>19</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.673552174855521</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3398143071329954</v>
       </c>
     </row>
@@ -5787,72 +5679,66 @@
         <v>1.984094414725768e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.4403600539593885</v>
+        <v>6.505618509900937e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.2627135539414</v>
+        <v>8.271400929288873e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.505618509900937e-08</v>
+        <v>-0.01611778347930682</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.271400929288873e-07</v>
+        <v>0.2179194298861564</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.01611778347930682</v>
+        <v>0.04767537436500525</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2179194298861564</v>
+        <v>1.767709849573535</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04767537436500525</v>
+        <v>1.660719910236784</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.708201040175817</v>
+        <v>5.026876232763188</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.660719910236784</v>
+        <v>6.946049982241826e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.026876232763188</v>
+        <v>739667250.2227439</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.946049982241826e-17</v>
+        <v>1.545876640011936e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>739667250.2227439</v>
+        <v>38.00237020414134</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.545876640011936e-07</v>
+        <v>0.0001155215812891628</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>38.00237020414134</v>
+        <v>10.12962289484345</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001155215812891628</v>
+        <v>1.426025006095682</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.12962289484345</v>
+        <v>0.01185358396915623</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.426025006095682</v>
+        <v>3.145132250975652</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01185358396915623</v>
+        <v>0.9523809733146438</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.145132250975652</v>
+        <v>1.699980440414496</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9523809733146438</v>
+        <v>26</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.699980440414496</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.3832368048571538</v>
       </c>
     </row>
@@ -5867,72 +5753,66 @@
         <v>1.968691519758574e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.4468387220680659</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.254025904752798</v>
+        <v>8.269688491652583e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>-0.002095395633962683</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8.269688491652583e-07</v>
+        <v>0.1870416495411113</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.002095395633962683</v>
+        <v>0.03495327839940122</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1870416495411113</v>
+        <v>1.819357377845684</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03495327839940122</v>
+        <v>1.793016104778103</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.776572772322022</v>
+        <v>4.619475862755371</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.793016104778103</v>
+        <v>6.847989060201582e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.619475862755371</v>
+        <v>738217272.587845</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.847989060201582e-17</v>
+        <v>1.572503393640655e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>738217272.587845</v>
+        <v>37.31912588309689</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.572503393640655e-07</v>
+        <v>0.0001188193733739703</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>37.31912588309689</v>
+        <v>7.358573852738699</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001188193733739703</v>
+        <v>1.586395276230008</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.358573852738699</v>
+        <v>0.006433903807824669</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.586395276230008</v>
+        <v>3.170262814216409</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.006433903807824669</v>
+        <v>0.9535800502798197</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.170262814216409</v>
+        <v>1.574548503727971</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9535800502798197</v>
+        <v>25</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.574548503727971</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3422311256750052</v>
       </c>
     </row>
@@ -5947,72 +5827,66 @@
         <v>1.970929908109345e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.4535086241854808</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.255527812584608</v>
+        <v>8.27032231056076e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.007832963584249123</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8.27032231056076e-07</v>
+        <v>0.1683349561672889</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.007832963584249123</v>
+        <v>0.02838089052853858</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1683349561672889</v>
+        <v>1.837408265037086</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02838089052853858</v>
+        <v>1.829424534823425</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.80526741511718</v>
+        <v>4.591073331245992</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.829424534823425</v>
+        <v>3.41674256022111e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.591073331245992</v>
+        <v>1453217392.851601</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.41674256022111e-17</v>
+        <v>8.048568299002408e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1453217392.851601</v>
+        <v>72.15616310632588</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>8.048568299002408e-08</v>
+        <v>0.0001346281862433411</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>72.15616310632588</v>
+        <v>8.204375579612501</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001346281862433411</v>
+        <v>1.534183333252616</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.204375579612501</v>
+        <v>0.009062062672643421</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.534183333252616</v>
+        <v>2.965703013125043</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.009062062672643421</v>
+        <v>0.9536907343740954</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.965703013125043</v>
+        <v>1.570702584266497</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9536907343740954</v>
+        <v>47</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.570702584266497</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3684654806675405</v>
       </c>
     </row>
@@ -6027,72 +5901,66 @@
         <v>1.974375212404678e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4828852299217652</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.245367298786584</v>
+        <v>8.272577303928489e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.01453749460670583</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8.272577303928489e-07</v>
+        <v>0.1584027821102693</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01453749460670583</v>
+        <v>0.02529536811613162</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1584027821102693</v>
+        <v>1.849824465843513</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02529536811613162</v>
+        <v>2.28248130384713</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.82500427048559</v>
+        <v>3.960496492511538</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.28248130384713</v>
+        <v>2.803254664805443e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.960496492511538</v>
+        <v>1756874799.435312</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.803254664805443e-17</v>
+        <v>6.66900759910685e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1756874799.435312</v>
+        <v>86.52551248373069</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.66900759910685e-08</v>
+        <v>0.0001381007207453038</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>86.52551248373069</v>
+        <v>8.421193303553419</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001381007207453038</v>
+        <v>1.564494269318094</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.421193303553419</v>
+        <v>0.009793619300899696</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.564494269318094</v>
+        <v>2.955656311207367</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.009793619300899696</v>
+        <v>0.9546105376119196</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.955656311207367</v>
+        <v>1.542208422603658</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9546105376119196</v>
+        <v>47</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.542208422603658</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3772338020614359</v>
       </c>
     </row>
@@ -6107,72 +5975,66 @@
         <v>1.973508052214474e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.5299611640074847</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.20836689735404</v>
+        <v>8.27593670088775e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.01913152548450377</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.27593670088775e-07</v>
+        <v>0.1541623041156933</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.01913152548450377</v>
+        <v>0.02412959771446814</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1541623041156933</v>
+        <v>1.846982695072358</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02412959771446814</v>
+        <v>2.075395661054327</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.817833366135866</v>
+        <v>4.032082154733633</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.075395661054327</v>
+        <v>2.883581733867598e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.032082154733633</v>
+        <v>1723690203.769976</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.883581733867598e-17</v>
+        <v>6.77826299940035e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1723690203.769976</v>
+        <v>85.67432523345275</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.77826299940035e-08</v>
+        <v>0.0001267885093078431</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>85.67432523345275</v>
+        <v>7.723673635720257</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001267885093078431</v>
+        <v>1.659174156760011</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.723673635720257</v>
+        <v>0.007563585567080713</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.659174156760011</v>
+        <v>3.10849606377779</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.007563585567080713</v>
+        <v>0.9547308153782363</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.10849606377779</v>
+        <v>1.54359090548513</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9547308153782363</v>
+        <v>48</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.54359090548513</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3723775671422521</v>
       </c>
     </row>
@@ -6187,72 +6049,66 @@
         <v>1.96791834004119e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.5876454686387278</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.146039313211542</v>
+        <v>8.280021770198491e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.02216574249620023</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>8.280021770198491e-07</v>
+        <v>0.1527825743579126</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.02216574249620023</v>
+        <v>0.0238324327214419</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1527825743579126</v>
+        <v>1.837345668068666</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0238324327214419</v>
+        <v>2.141534113422995</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.809833282960487</v>
+        <v>4.334216283960938</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.141534113422995</v>
+        <v>2.49557054838578e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.334216283960938</v>
+        <v>1931989392.569305</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.49557054838578e-17</v>
+        <v>6.032052727248033e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1931989392.569305</v>
+        <v>93.14924236648635</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.032052727248033e-08</v>
+        <v>0.0001241045065992792</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>93.14924236648635</v>
+        <v>8.017398676355226</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001241045065992792</v>
+        <v>1.536570422556747</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.017398676355226</v>
+        <v>0.007977274056830635</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.536570422556747</v>
+        <v>3.046780195094589</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007977274056830635</v>
+        <v>0.955094167634145</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.046780195094589</v>
+        <v>1.562231941785749</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.955094167634145</v>
+        <v>55</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.562231941785749</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3983465318869977</v>
       </c>
     </row>
@@ -6267,72 +6123,66 @@
         <v>1.957302988202786e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.6530698973849409</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.058342521371182</v>
+        <v>8.284676438474092e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.02539475640165307</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>8.284676438474092e-07</v>
+        <v>0.1517466683850952</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.02539475640165307</v>
+        <v>0.02366996541630099</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1517466683850952</v>
+        <v>1.83483867612925</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02366996541630099</v>
+        <v>2.186563652759743</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.809559489566909</v>
+        <v>4.341871220012917</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.186563652759743</v>
+        <v>2.526318884962751e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.341871220012917</v>
+        <v>1983847226.225785</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.526318884962751e-17</v>
+        <v>5.899222618626958e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1983847226.225785</v>
+        <v>99.42706457296748</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.899222618626958e-08</v>
+        <v>0.000117943088589013</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>99.42706457296748</v>
+        <v>7.703256348416446</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.000117943088589013</v>
+        <v>1.532686940445464</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.703256348416446</v>
+        <v>0.006998761555450364</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.532686940445464</v>
+        <v>3.112753658234761</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.006998761555450364</v>
+        <v>0.9553858619754692</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.112753658234761</v>
+        <v>1.552730927301128</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9553858619754692</v>
+        <v>50</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.552730927301128</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.4236929154226551</v>
       </c>
     </row>
@@ -6347,72 +6197,66 @@
         <v>1.940227975310073e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.72645836380357</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.9400414075275156</v>
+        <v>8.290032026949001e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.02974005108996774</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>8.290032026949001e-07</v>
+        <v>0.1508790035898124</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.02974005108996774</v>
+        <v>0.02364638174993168</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1508790035898124</v>
+        <v>1.823164775498652</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02364638174993168</v>
+        <v>1.9862288611435</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.798307113541797</v>
+        <v>5.113046570334399</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.9862288611435</v>
+        <v>3.296118118530591e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.113046570334399</v>
+        <v>1524600527.522628</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.296118118530591e-17</v>
+        <v>7.676966924941176e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1524600527.522628</v>
+        <v>76.61519264561417</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.676966924941176e-08</v>
+        <v>0.0001118580186954019</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>76.61519264561417</v>
+        <v>7.019413039911104</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001118580186954019</v>
+        <v>1.572495450687156</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.019413039911104</v>
+        <v>0.005511486130110384</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.572495450687156</v>
+        <v>3.225774061515783</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.005511486130110384</v>
+        <v>0.9554642835295002</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.225774061515783</v>
+        <v>1.553490273691085</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9554642835295002</v>
+        <v>48</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.553490273691085</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.4239467722517174</v>
       </c>
     </row>
@@ -6427,72 +6271,66 @@
         <v>1.916144029886258e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.8071758538765483</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.7889148678521836</v>
+        <v>8.296293769175003e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.03549133039292566</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>8.296293769175003e-07</v>
+        <v>0.151435113032802</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.03549133039292566</v>
+        <v>0.02418776937885542</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.151435113032802</v>
+        <v>1.819808590776755</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02418776937885542</v>
+        <v>1.933382944873481</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.794484360389181</v>
+        <v>5.118327652679254</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.933382944873481</v>
+        <v>5.410947590728164e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.118327652679254</v>
+        <v>938123498.3119193</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.410947590728164e-17</v>
+        <v>1.246865285271427e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>938123498.3119193</v>
+        <v>47.62043478211403</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.246865285271427e-07</v>
+        <v>0.0001137137858854</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>47.62043478211403</v>
+        <v>7.191156935519873</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001137137858854</v>
+        <v>1.591783632291562</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.191156935519873</v>
+        <v>0.0058804512245848</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.591783632291562</v>
+        <v>3.204161725169921</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0058804512245848</v>
+        <v>0.9573386419536337</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.204161725169921</v>
+        <v>1.561303134584762</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9573386419536337</v>
+        <v>48</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.561303134584762</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.4187917287314891</v>
       </c>
     </row>
@@ -6507,72 +6345,66 @@
         <v>1.886253871621301e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.8911055596785156</v>
+        <v>6.183195530601581e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.6086862876857202</v>
+        <v>8.303764056686058e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.183195530601581e-08</v>
+        <v>0.04355760065733397</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8.303764056686058e-07</v>
+        <v>0.1549208419436443</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04355760065733397</v>
+        <v>0.02588780128640129</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1549208419436443</v>
+        <v>1.828336267339732</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02588780128640129</v>
+        <v>1.677178529597318</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.802422728075244</v>
+        <v>4.64498434381052</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.677178529597318</v>
+        <v>9.196353965586698e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.64498434381052</v>
+        <v>563954331.2914345</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>9.196353965586698e-17</v>
+        <v>2.094330295478497e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>563954331.2914345</v>
+        <v>29.24849686450381</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.094330295478497e-07</v>
+        <v>0.0001101440306986957</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>29.24849686450381</v>
+        <v>6.860294660190749</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001101440306986957</v>
+        <v>1.520779483342885</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>6.860294660190749</v>
+        <v>0.005183779320069787</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.520779483342885</v>
+        <v>3.331211402875235</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.005183779320069787</v>
+        <v>0.9552942155531859</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.331211402875235</v>
+        <v>1.560662178668966</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9552942155531859</v>
+        <v>45</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.560662178668966</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.3287476608778793</v>
       </c>
     </row>
@@ -6587,72 +6419,66 @@
         <v>1.854549153362056e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.9616301801752407</v>
+        <v>6.278428194895049e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.4121178590693875</v>
+        <v>8.312856613666142e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.278428194895049e-08</v>
+        <v>0.05393637431721329</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>8.312856613666142e-07</v>
+        <v>0.1630599792659678</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.05393637431721329</v>
+        <v>0.0294834746148916</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1630599792659678</v>
+        <v>1.776948436786163</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.0294834746148916</v>
+        <v>1.765874699515804</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.739478426258408</v>
+        <v>4.426967922072263</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.765874699515804</v>
+        <v>1.020482884213494e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.426967922072263</v>
+        <v>521589751.6134571</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.020482884213494e-16</v>
+        <v>2.223750059493402e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>521589751.6134571</v>
+        <v>27.76283578522746</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.223750059493402e-07</v>
+        <v>0.0001344362863015059</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>27.76283578522746</v>
+        <v>9.868388270255648</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001344362863015059</v>
+        <v>1.154997494024645</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.868388270255648</v>
+        <v>0.01309208944448955</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.154997494024645</v>
+        <v>3.016537532395414</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01309208944448955</v>
+        <v>0.9551719368603899</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.016537532395414</v>
+        <v>1.597256950947081</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9551719368603899</v>
+        <v>43</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.597256950947081</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2904221806761145</v>
       </c>
     </row>
@@ -6667,72 +6493,66 @@
         <v>1.826953658958751e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.9856677464214486</v>
+        <v>7.022417971276903e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.2111514469028681</v>
+        <v>8.323689979681878e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.022417971276903e-08</v>
+        <v>0.06329977013546385</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>8.323689979681878e-07</v>
+        <v>0.170248666052794</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.06329977013546385</v>
+        <v>0.03298506583618454</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.170248666052794</v>
+        <v>1.719799865909453</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03298506583618454</v>
+        <v>1.590737144175484</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.665884666186679</v>
+        <v>5.734963961280369</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.590737144175484</v>
+        <v>1.806247384694457e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.734963961280369</v>
+        <v>308104043.4723059</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.806247384694457e-16</v>
+        <v>3.656771081749831e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>308104043.4723059</v>
+        <v>17.14636352562068</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.656771081749831e-07</v>
+        <v>0.0001581132555098113</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>17.14636352562068</v>
+        <v>10.04699378996878</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001581132555098113</v>
+        <v>1.248804046608403</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.04699378996878</v>
+        <v>0.01596028155328532</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.248804046608403</v>
+        <v>2.921502748443353</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01596028155328532</v>
+        <v>0.952463464913852</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.921502748443353</v>
+        <v>1.733569194722038</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.952463464913852</v>
+        <v>39</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.733569194722038</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2592687824296239</v>
       </c>
     </row>
@@ -6747,72 +6567,66 @@
         <v>1.802441906009467e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.9534788331388547</v>
+        <v>7.409745739870777e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.01296359946024461</v>
+        <v>8.335708718733767e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.409745739870777e-08</v>
+        <v>0.06848212371421294</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>8.335708718733767e-07</v>
+        <v>0.1731506059981436</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.06848212371421294</v>
+        <v>0.03467048279582568</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1731506059981436</v>
+        <v>1.70855812778257</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03467048279582568</v>
+        <v>1.620973820507021</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.647941678775558</v>
+        <v>4.62241021580118</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.620973820507021</v>
+        <v>2.780363950290923e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.62241021580118</v>
+        <v>202116349.6897294</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.780363950290923e-16</v>
+        <v>5.545372905952844e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>202116349.6897294</v>
+        <v>11.35807000372659</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.545372905952844e-07</v>
+        <v>0.0001801473678280914</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.35807000372659</v>
+        <v>8.589556454735515</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001801473678280914</v>
+        <v>1.645962217254952</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.589556454735515</v>
+        <v>0.01329135928514221</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.645962217254952</v>
+        <v>2.9272298799744</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01329135928514221</v>
+        <v>0.9525302337481452</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.9272298799744</v>
+        <v>1.740380099948917</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9525302337481452</v>
+        <v>39</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.740380099948917</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1845555519068094</v>
       </c>
     </row>
@@ -6827,72 +6641,66 @@
         <v>1.775346801849402e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.8895545882642144</v>
+        <v>7.520647850096772e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.1628407473062343</v>
+        <v>8.348181619783703e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7.520647850096772e-08</v>
+        <v>0.07059592445245547</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8.348181619783703e-07</v>
+        <v>0.1756304909112286</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.07059592445245547</v>
+        <v>0.03583045466379795</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1756304909112286</v>
+        <v>1.706407272564332</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03583045466379795</v>
+        <v>1.666610825967482</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.646056392639551</v>
+        <v>4.425982346931771</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.666610825967482</v>
+        <v>3.032628853647713e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.425982346931771</v>
+        <v>182555455.7347599</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.032628853647713e-16</v>
+        <v>6.12561434399659e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>182555455.7347599</v>
+        <v>10.1066888564551</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.12561434399659e-07</v>
+        <v>0.0001559660352285231</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>10.1066888564551</v>
+        <v>8.867221397710034</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001559660352285231</v>
+        <v>1.337364838159691</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.867221397710034</v>
+        <v>0.01226323742031106</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.337364838159691</v>
+        <v>2.901754685048218</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01226323742031106</v>
+        <v>0.9498330885062113</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.901754685048218</v>
+        <v>1.754073885574347</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9498330885062113</v>
+        <v>38</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.754073885574347</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1742260923256281</v>
       </c>
     </row>
@@ -6907,72 +6715,66 @@
         <v>1.741453004500978e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.8134885950863598</v>
+        <v>7.475913338757506e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.2984450640020571</v>
+        <v>8.360675377947437e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.475913338757506e-08</v>
+        <v>0.07128863294376396</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>8.360675377947437e-07</v>
+        <v>0.1793032124722738</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.07128863294376396</v>
+        <v>0.03723219034544558</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1793032124722738</v>
+        <v>1.705325675861058</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03723219034544558</v>
+        <v>1.671148004522582</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.643184922105877</v>
+        <v>4.418760261245321</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.671148004522582</v>
+        <v>3.042550099669595e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.418760261245321</v>
+        <v>180086665.7071862</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.042550099669595e-16</v>
+        <v>6.201577905239782e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>180086665.7071862</v>
+        <v>9.867357259389413</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.201577905239782e-07</v>
+        <v>0.0001497869802774328</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>9.867357259389413</v>
+        <v>9.557891299442961</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001497869802774328</v>
+        <v>1.179288692858646</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.557891299442961</v>
+        <v>0.0136835328621362</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.179288692858646</v>
+        <v>2.757658885328107</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0136835328621362</v>
+        <v>0.9504182034542936</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.757658885328107</v>
+        <v>1.771238214134964</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9504182034542936</v>
+        <v>38</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.771238214134964</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1785269419271492</v>
       </c>
     </row>
@@ -6987,72 +6789,66 @@
         <v>1.69852947921244e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.7315562995255749</v>
+        <v>7.400295861260301e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.3828118997490884</v>
+        <v>8.372960592315743e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>7.400295861260301e-08</v>
+        <v>0.07142813656773116</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>8.372960592315743e-07</v>
+        <v>0.184536793130788</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.07142813656773116</v>
+        <v>0.03915599213290499</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.184536793130788</v>
+        <v>1.709320867375955</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.03915599213290499</v>
+        <v>1.600520470180765</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.645996107155221</v>
+        <v>4.410949557463549</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.600520470180765</v>
+        <v>3.053334851458971e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.410949557463549</v>
+        <v>177752619.9977758</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.053334851458971e-16</v>
+        <v>6.286606265568774e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>177752619.9977758</v>
+        <v>9.647314939043337</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>6.286606265568774e-07</v>
+        <v>0.000151120804894303</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>9.647314939043337</v>
+        <v>9.811055750308968</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.000151120804894303</v>
+        <v>1.177532492533266</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.811055750308968</v>
+        <v>0.01454640734964052</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.177532492533266</v>
+        <v>2.655419684742935</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01454640734964052</v>
+        <v>0.951972517837964</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.655419684742935</v>
+        <v>1.752105401858979</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.951972517837964</v>
+        <v>31</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.752105401858979</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1822211125458467</v>
       </c>
     </row>
@@ -7067,72 +6863,66 @@
         <v>1.646668420081926e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.6416392607019028</v>
+        <v>7.270052670728295e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.4083870270030543</v>
+        <v>8.384903567633136e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>7.270052670728295e-08</v>
+        <v>0.07124346803993992</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>8.384903567633136e-07</v>
+        <v>0.1911900526903406</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.07124346803993992</v>
+        <v>0.04162894120808368</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1911900526903406</v>
+        <v>1.709927003774749</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.04162894120808368</v>
+        <v>1.59326965248838</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.649637429666807</v>
+        <v>4.4251360106816</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.59326965248838</v>
+        <v>3.033788984847189e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.4251360106816</v>
+        <v>182947904.009057</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.033788984847189e-16</v>
+        <v>6.124685980018384e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>182947904.009057</v>
+        <v>10.15407218901145</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.124685980018384e-07</v>
+        <v>0.0001478559740525366</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>10.15407218901145</v>
+        <v>8.999440483181145</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001478559740525366</v>
+        <v>1.220767026261951</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.999440483181145</v>
+        <v>0.01197484484226661</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.220767026261951</v>
+        <v>2.828895238721462</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01197484484226661</v>
+        <v>0.9524019700445844</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.828895238721462</v>
+        <v>1.757635118131089</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9524019700445844</v>
+        <v>40</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.757635118131089</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1767384250257025</v>
       </c>
     </row>
@@ -7147,72 +6937,66 @@
         <v>1.589753939549156e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.5431883044159185</v>
+        <v>7.029858402925222e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.382623356155102</v>
+        <v>8.396384252627597e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>7.029858402925222e-08</v>
+        <v>0.07049613888319529</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>8.396384252627597e-07</v>
+        <v>0.1983517084132659</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.07049613888319529</v>
+        <v>0.04431116326019627</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1983517084132659</v>
+        <v>1.711634915458246</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.04431116326019627</v>
+        <v>1.62837184953258</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.650923334721265</v>
+        <v>4.409269670138953</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.62837184953258</v>
+        <v>3.055661874297863e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.409269670138953</v>
+        <v>181980913.5136544</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.055661874297863e-16</v>
+        <v>6.161418457498276e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>181980913.5136544</v>
+        <v>10.11945158844964</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.161418457498276e-07</v>
+        <v>0.0001639761109542747</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>10.11945158844964</v>
+        <v>8.230095571212789</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001639761109542747</v>
+        <v>1.549970980882987</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.230095571212789</v>
+        <v>0.01110683547832727</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.549970980882987</v>
+        <v>2.923374951170414</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01110683547832727</v>
+        <v>0.9550481181775102</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.923374951170414</v>
+        <v>1.75536515846883</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9550481181775102</v>
+        <v>18</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.75536515846883</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1601121592955366</v>
       </c>
     </row>
@@ -7227,72 +7011,66 @@
         <v>1.535342156810933e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.4459524597024995</v>
+        <v>6.663107723851357e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.3428991090865807</v>
+        <v>8.4072852691331e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>6.663107723851357e-08</v>
+        <v>0.06904246990649204</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>8.4072852691331e-07</v>
+        <v>0.2044360001896486</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.06904246990649204</v>
+        <v>0.04655741271250077</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.2044360001896486</v>
+        <v>1.71713385227831</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.04655741271250077</v>
+        <v>1.588593929535977</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.657717846301392</v>
+        <v>4.383379268897469</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.588593929535977</v>
+        <v>3.091864970263513e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.383379268897469</v>
+        <v>182933360.1191475</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.091864970263513e-16</v>
+        <v>6.136227525902918e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>182933360.1191475</v>
+        <v>10.34680685258944</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.136227525902918e-07</v>
+        <v>0.0001684995978945511</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>10.34680685258944</v>
+        <v>8.916178122507528</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001684995978945511</v>
+        <v>1.415803752098638</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.916178122507528</v>
+        <v>0.0133954201779471</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.415803752098638</v>
+        <v>2.85183101122094</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.0133954201779471</v>
+        <v>0.9544084757723952</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.85183101122094</v>
+        <v>1.74695949141325</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9544084757723952</v>
+        <v>18</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.74695949141325</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1562536165909301</v>
       </c>
     </row>
@@ -7307,72 +7085,66 @@
         <v>1.488584301124228e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.3576442725042954</v>
+        <v>6.327378598883354e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.3168576004984591</v>
+        <v>8.417633171969099e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>6.327378598883354e-08</v>
+        <v>0.06809551780799919</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>8.417633171969099e-07</v>
+        <v>0.2099010452587176</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.06809551780799919</v>
+        <v>0.04869408304589216</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2099010452587176</v>
+        <v>1.717544890481636</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.04869408304589216</v>
+        <v>1.652991131727592</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.660265487527646</v>
+        <v>4.389140810032464</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.652991131727592</v>
+        <v>3.083753034013115e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.389140810032464</v>
+        <v>190917440.5789138</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.083753034013115e-16</v>
+        <v>5.946411411049344e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>190917440.5789138</v>
+        <v>11.24011609783423</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.946411411049344e-07</v>
+        <v>0.0001574612540909439</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>11.24011609783423</v>
+        <v>10.16174160819715</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001574612540909439</v>
+        <v>1.138677132054804</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.16174160819715</v>
+        <v>0.01625960537957812</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.138677132054804</v>
+        <v>2.6771476396149</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01625960537957812</v>
+        <v>0.954454906990004</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.6771476396149</v>
+        <v>1.733608973179554</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.954454906990004</v>
+        <v>18</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.733608973179554</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.169175675980841</v>
       </c>
     </row>
@@ -7749,7 +7521,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.562795169528069</v>
+        <v>1.512547264915001</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.185782407607209</v>
@@ -7838,7 +7610,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.53574608599414</v>
+        <v>1.472489854418134</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.106142243079259</v>
@@ -7927,7 +7699,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.500352517963263</v>
+        <v>1.453984355610457</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.173033175914932</v>
@@ -8016,7 +7788,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.499178253969539</v>
+        <v>1.454466675238393</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.096381215298038</v>
@@ -8105,7 +7877,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.494731021827129</v>
+        <v>1.447688921987616</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.092555395340101</v>
@@ -8194,7 +7966,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495238842592186</v>
+        <v>1.447142763211499</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.067094305259708</v>
@@ -8283,7 +8055,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.492712680865101</v>
+        <v>1.441436629984203</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.099377459663327</v>
@@ -8372,7 +8144,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.48971171958138</v>
+        <v>1.435674435608534</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.118938599668422</v>
@@ -8461,7 +8233,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.498300253423012</v>
+        <v>1.447477802992823</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.087301715312111</v>
@@ -8550,7 +8322,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.503592804625912</v>
+        <v>1.457186578706276</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.131569084827219</v>
@@ -8639,7 +8411,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.503319342236811</v>
+        <v>1.459717324627826</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.09238114033324</v>
@@ -8728,7 +8500,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490050314601082</v>
+        <v>1.447058066986247</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.069430528833792</v>
@@ -8817,7 +8589,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.485768022203273</v>
+        <v>1.446777329616038</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.071286854484112</v>
@@ -8906,7 +8678,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510586683938212</v>
+        <v>1.47162999221229</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.114329471544881</v>
@@ -8995,7 +8767,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.507332973506115</v>
+        <v>1.468595130090512</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.064701932233652</v>
@@ -9084,7 +8856,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.515863221689093</v>
+        <v>1.479095681446096</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.09913195424624</v>
@@ -9173,7 +8945,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.565217609700747</v>
+        <v>1.520996555086931</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.325531196447829</v>
@@ -9262,7 +9034,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.579872220981673</v>
+        <v>1.536327788114181</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.836166180278286</v>
@@ -9351,7 +9123,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.588660248379347</v>
+        <v>1.543392958960798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.079443121990871</v>
@@ -9440,7 +9212,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591692185118889</v>
+        <v>1.547873503625817</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.060429640542663</v>
@@ -9529,7 +9301,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.592990849622268</v>
+        <v>1.547679402242426</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.026487522443022</v>
@@ -9618,7 +9390,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.599990087660811</v>
+        <v>1.559643975699425</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.948332587638344</v>
@@ -9707,7 +9479,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610736810927151</v>
+        <v>1.566678120034799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.535322035052646</v>
@@ -9796,7 +9568,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.60698381780275</v>
+        <v>1.557969779739646</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.013811997202396</v>
@@ -9885,7 +9657,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590884120779666</v>
+        <v>1.536402759441771</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.820115143402973</v>
@@ -9974,7 +9746,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614227010000749</v>
+        <v>1.552976036204606</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.228818188648269</v>
@@ -10063,7 +9835,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.626175035304314</v>
+        <v>1.56132282966841</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.199962082510449</v>
@@ -10152,7 +9924,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.619998208521438</v>
+        <v>1.557698647242926</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.364452650906894</v>
@@ -10241,7 +10013,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.610612544847462</v>
+        <v>1.547833597752797</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.885994993296289</v>
@@ -10330,7 +10102,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.611715397665044</v>
+        <v>1.547100996915393</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.259318548601585</v>
@@ -10419,7 +10191,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610008754671019</v>
+        <v>1.543461648671222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.913790679857384</v>
@@ -10508,7 +10280,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.598326912468831</v>
+        <v>1.528413948318072</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.818717999106387</v>
@@ -10597,7 +10369,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.583884046079188</v>
+        <v>1.514312629421724</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.953098908340578</v>
@@ -10686,7 +10458,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.578538442444419</v>
+        <v>1.509324775808273</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.949051332821107</v>
@@ -10775,7 +10547,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584856853017292</v>
+        <v>1.511450074967822</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.914131979954392</v>
@@ -10864,7 +10636,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581296260604713</v>
+        <v>1.515326076905623</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.887008570048824</v>
@@ -10953,7 +10725,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576180856928094</v>
+        <v>1.509159930054859</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.935105805884149</v>
@@ -11042,7 +10814,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568646794012748</v>
+        <v>1.506922623137747</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.843893924837397</v>
@@ -11131,7 +10903,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.572956857856086</v>
+        <v>1.513853270770766</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.771493065009585</v>
@@ -11220,7 +10992,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.590197241372385</v>
+        <v>1.528191085632346</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.657373190232577</v>
@@ -11309,7 +11081,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583510199540797</v>
+        <v>1.520029039576657</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.970295184967772</v>
@@ -11398,7 +11170,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591457939949198</v>
+        <v>1.521596844468113</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.975267625659689</v>
@@ -11487,7 +11259,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.601289814812187</v>
+        <v>1.528100827055644</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.951840338729612</v>
@@ -11576,7 +11348,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.594988441356533</v>
+        <v>1.526153139778428</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.79519036782486</v>
@@ -11665,7 +11437,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.581930956601561</v>
+        <v>1.517787660311693</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.74938090567916</v>
@@ -11754,7 +11526,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.584059782699267</v>
+        <v>1.521668092532744</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.77172556046688</v>
@@ -11843,7 +11615,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.57283363391363</v>
+        <v>1.517371099539189</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.648606694236304</v>
@@ -11932,7 +11704,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.58628853888718</v>
+        <v>1.535682911220146</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.541061858296625</v>
@@ -12021,7 +11793,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.572732384651781</v>
+        <v>1.523483383324745</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.732427216734388</v>
@@ -12110,7 +11882,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.585054925795865</v>
+        <v>1.534934342929992</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.647771103917851</v>
@@ -12199,7 +11971,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.584335620032422</v>
+        <v>1.536543521707878</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.768355281266095</v>
@@ -12288,7 +12060,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.590180628234741</v>
+        <v>1.547537693610056</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.619041692797703</v>
@@ -12377,7 +12149,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.597561359171485</v>
+        <v>1.546087579410906</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.804110473963407</v>
@@ -12466,7 +12238,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.583472039046617</v>
+        <v>1.538214269198752</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.703330831205203</v>
@@ -12555,7 +12327,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.578811126074684</v>
+        <v>1.538194631884932</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.537758254878245</v>
@@ -12644,7 +12416,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.586475746704427</v>
+        <v>1.551957811327923</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.833049071402462</v>
@@ -12733,7 +12505,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.56512649295731</v>
+        <v>1.534500869936916</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.789568771063625</v>
@@ -12822,7 +12594,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.563622037073192</v>
+        <v>1.532572015357291</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.479739899746007</v>
@@ -12911,7 +12683,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.572408643783149</v>
+        <v>1.540847439700733</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.783944506793284</v>
@@ -13000,7 +12772,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.584343769407761</v>
+        <v>1.549789264073478</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.658517368466173</v>
@@ -13089,7 +12861,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.58963993982647</v>
+        <v>1.548130548929315</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.571304569365761</v>
@@ -13178,7 +12950,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.607556419749516</v>
+        <v>1.563889004292928</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.738011620409434</v>
@@ -13267,7 +13039,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.609348604443992</v>
+        <v>1.565198738550064</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.80631435588319</v>
@@ -13356,7 +13128,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.606661916189107</v>
+        <v>1.558565599125065</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.903338058023635</v>
@@ -13445,7 +13217,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.593990118785362</v>
+        <v>1.549657245318803</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.921180936257589</v>
@@ -13534,7 +13306,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.577758240293542</v>
+        <v>1.534503811545977</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.831195856565544</v>
@@ -13623,7 +13395,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.568638265218631</v>
+        <v>1.519428592403319</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.953703117282141</v>
@@ -13712,7 +13484,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.553210744150537</v>
+        <v>1.510251999913809</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.96090546447699</v>
@@ -13801,7 +13573,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.542825868628177</v>
+        <v>1.498632599390681</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.564772361261284</v>
@@ -13890,7 +13662,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.501704381256803</v>
+        <v>1.456268076074918</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.235060187426086</v>
@@ -13979,7 +13751,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.435702783335074</v>
+        <v>1.392760364208635</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.999681079900987</v>
@@ -14068,7 +13840,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.423067126960927</v>
+        <v>1.378490674125754</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.004932336272863</v>
@@ -14157,7 +13929,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.416142876408083</v>
+        <v>1.372410712490492</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.056107082792922</v>
@@ -14246,7 +14018,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.410971086089514</v>
+        <v>1.36719983800599</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.052219341210114</v>
@@ -14335,7 +14107,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.400946786798974</v>
+        <v>1.358714865383936</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.078336174120018</v>
@@ -14424,7 +14196,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.399061874991951</v>
+        <v>1.35738376388396</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.108323378038149</v>
@@ -14513,7 +14285,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.393136071295867</v>
+        <v>1.351351095320124</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.096901377784549</v>
@@ -14602,7 +14374,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.392081970668723</v>
+        <v>1.350222839425945</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.166475603696802</v>
@@ -14691,7 +14463,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.39582415138844</v>
+        <v>1.349102978096588</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.165965656598298</v>
@@ -14780,7 +14552,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.395687580847033</v>
+        <v>1.348274470197457</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.136899201482459</v>
@@ -14869,7 +14641,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.398803893799152</v>
+        <v>1.350231675134897</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.10360127168517</v>
@@ -15155,7 +14927,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.77993500874122</v>
+        <v>1.806503165393933</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.237382504370694</v>
@@ -15244,7 +15016,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.654915867429257</v>
+        <v>1.672683801184367</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.067475821527406</v>
@@ -15333,7 +15105,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.608824094500685</v>
+        <v>1.64481515288929</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.013669695786068</v>
@@ -15422,7 +15194,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.588776816400747</v>
+        <v>1.625442782758563</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.983719296650736</v>
@@ -15511,7 +15283,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.583416671890948</v>
+        <v>1.619641129642588</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.000638267140001</v>
@@ -15600,7 +15372,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.590730863215677</v>
+        <v>1.626699665107891</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.004634229453914</v>
@@ -15689,7 +15461,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593980510099995</v>
+        <v>1.629835162864316</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.998715287514086</v>
@@ -15778,7 +15550,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.597879579076087</v>
+        <v>1.632985259303233</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.004379270057749</v>
@@ -15867,7 +15639,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599177111877222</v>
+        <v>1.636617305692756</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.059799324555533</v>
@@ -15956,7 +15728,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607943546692065</v>
+        <v>1.643752781427888</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.016752850840211</v>
@@ -16045,7 +15817,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.611481574173203</v>
+        <v>1.648434779654761</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.052368045614962</v>
@@ -16134,7 +15906,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.604199996114742</v>
+        <v>1.63963915513389</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.035705570200181</v>
@@ -16223,7 +15995,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.596953415322164</v>
+        <v>1.63086047154796</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.032725984718372</v>
@@ -16312,7 +16084,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.608894077342607</v>
+        <v>1.643637102271907</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.003264754051234</v>
@@ -16401,7 +16173,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.611174256213753</v>
+        <v>1.647697171595041</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.018263229737803</v>
@@ -16490,7 +16262,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.616150485295596</v>
+        <v>1.649688396901146</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.911699399379804</v>
@@ -16579,7 +16351,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.740693969064009</v>
+        <v>1.76535922757914</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.275251829618703</v>
@@ -16668,7 +16440,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.795241713010444</v>
+        <v>1.809963552658131</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.789538561421576</v>
@@ -16757,7 +16529,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.825341088110258</v>
+        <v>1.8328510871602</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.308364815204451</v>
@@ -16846,7 +16618,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.848990793359929</v>
+        <v>1.853061481318737</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.175397779498812</v>
@@ -16935,7 +16707,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.844950208514089</v>
+        <v>1.847227542503389</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.240099903012117</v>
@@ -17024,7 +16796,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.845772432348287</v>
+        <v>1.852111994480865</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.848474100482001</v>
@@ -17113,7 +16885,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.860501351063525</v>
+        <v>1.865170321556182</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.051261909815175</v>
@@ -17202,7 +16974,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.850156225990625</v>
+        <v>1.853469402673441</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.021090165503475</v>
@@ -17291,7 +17063,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.822534688327961</v>
+        <v>1.82558645262665</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.03214340715678</v>
@@ -17380,7 +17152,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.835059361982365</v>
+        <v>1.833344930450135</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.989435159117051</v>
@@ -17469,7 +17241,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.852698508310623</v>
+        <v>1.848123839076515</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.854762447967459</v>
@@ -17558,7 +17330,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.84048724208048</v>
+        <v>1.83985802102729</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.09473373062439</v>
@@ -17647,7 +17419,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.836370070581514</v>
+        <v>1.836937118472245</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.982340647724492</v>
@@ -17736,7 +17508,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.841818558064199</v>
+        <v>1.842193077831572</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.046847255701803</v>
@@ -17825,7 +17597,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.836034210731479</v>
+        <v>1.835684093511082</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.345301467718719</v>
@@ -17914,7 +17686,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.836320044804363</v>
+        <v>1.835437806640406</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.587445825995091</v>
@@ -18003,7 +17775,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.825653808342657</v>
+        <v>1.818837717133164</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.769988591663614</v>
@@ -18092,7 +17864,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.798009800675979</v>
+        <v>1.799280862115462</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.521340926994975</v>
@@ -18181,7 +17953,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.791826627837639</v>
+        <v>1.791832590995663</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.511758729142311</v>
@@ -18270,7 +18042,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786832652437901</v>
+        <v>1.779405948296578</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.530803918031912</v>
@@ -18359,7 +18131,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.780059577229694</v>
+        <v>1.769940725570066</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.028562852045011</v>
@@ -18448,7 +18220,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.76406702399003</v>
+        <v>1.755100198571941</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.106827594537576</v>
@@ -18537,7 +18309,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.772235538209721</v>
+        <v>1.761869036251835</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.978747910949659</v>
@@ -18626,7 +18398,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.78827568724228</v>
+        <v>1.778351501528352</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.390415432530923</v>
@@ -18715,7 +18487,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.782297505965644</v>
+        <v>1.776571712664502</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.378457980115571</v>
@@ -18804,7 +18576,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.789658761895852</v>
+        <v>1.781047545330677</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.464516465341775</v>
@@ -18893,7 +18665,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.802434192987628</v>
+        <v>1.796159039586662</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.795110207487147</v>
@@ -18982,7 +18754,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.792195866047825</v>
+        <v>1.790320773103607</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.583379667294555</v>
@@ -19071,7 +18843,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.774361444477794</v>
+        <v>1.777732221164912</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.396934915132903</v>
@@ -19160,7 +18932,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.786933440169388</v>
+        <v>1.790881818004616</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.397809179492643</v>
@@ -19249,7 +19021,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.70987410199434</v>
+        <v>1.725647918315803</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.40592076263191</v>
@@ -19338,7 +19110,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.724997625195602</v>
+        <v>1.743508638256397</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.179630180508037</v>
@@ -19427,7 +19199,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.712011537611997</v>
+        <v>1.73489947019808</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.373313630427079</v>
@@ -19516,7 +19288,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.713215608527778</v>
+        <v>1.737423770742718</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.347220765624443</v>
@@ -19605,7 +19377,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.718322878506932</v>
+        <v>1.74976569750397</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.438085154120282</v>
@@ -19694,7 +19466,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.726609490732323</v>
+        <v>1.75902748494396</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.443892252094245</v>
@@ -19783,7 +19555,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.718606469554888</v>
+        <v>1.750462316373769</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.441966306504271</v>
@@ -19872,7 +19644,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.717324757620013</v>
+        <v>1.754608719896421</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.498767038561541</v>
@@ -19961,7 +19733,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.723194327169065</v>
+        <v>1.75891871712088</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.361232778739088</v>
@@ -20050,7 +19822,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.723910661524085</v>
+        <v>1.762161925946301</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.463450331321227</v>
@@ -20139,7 +19911,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.673883045616154</v>
+        <v>1.712762395509714</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.304204219133025</v>
@@ -20228,7 +20000,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.634515942484263</v>
+        <v>1.682666032554764</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.308608609039661</v>
@@ -20317,7 +20089,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.645108371175942</v>
+        <v>1.692535505888622</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.345218422119704</v>
@@ -20406,7 +20178,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.654898705867269</v>
+        <v>1.702002119108661</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.328886353878022</v>
@@ -20495,7 +20267,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.651688070465858</v>
+        <v>1.695572963246444</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.289594720602202</v>
@@ -20584,7 +20356,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.710795751088255</v>
+        <v>1.752010479801799</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.357302995870417</v>
@@ -20673,7 +20445,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.718504134031914</v>
+        <v>1.759845860231546</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.278197406390612</v>
@@ -20762,7 +20534,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.714885020500059</v>
+        <v>1.754695897449374</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.332094713237229</v>
@@ -20851,7 +20623,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.710572288676741</v>
+        <v>1.751428560658942</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.331659486593761</v>
@@ -20940,7 +20712,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.706242744491084</v>
+        <v>1.745432753432741</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.323000470030668</v>
@@ -21029,7 +20801,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.706094207330617</v>
+        <v>1.749454737981559</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.281251957991529</v>
@@ -21118,7 +20890,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.72810345257767</v>
+        <v>1.767052893816386</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.288539995081105</v>
@@ -21207,7 +20979,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.681651726406033</v>
+        <v>1.717322342619359</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.373118023453191</v>
@@ -21296,7 +21068,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.633804651489678</v>
+        <v>1.670774268630591</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.345391690425797</v>
@@ -21385,7 +21157,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.576700353534018</v>
+        <v>1.600428762228083</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.3663301313302</v>
@@ -21474,7 +21246,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.606416190424732</v>
+        <v>1.622836093270492</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.472546908668659</v>
@@ -21563,7 +21335,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.612890918445941</v>
+        <v>1.629550238951964</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.391092494494564</v>
@@ -21652,7 +21424,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.599596461909066</v>
+        <v>1.612918087159723</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.482866066770108</v>
@@ -21741,7 +21513,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.598498891563266</v>
+        <v>1.615555779419656</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.431515870929463</v>
@@ -21830,7 +21602,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.604456151749153</v>
+        <v>1.622815618775843</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.492170239483224</v>
@@ -21919,7 +21691,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.594682393578855</v>
+        <v>1.612551757634092</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.44652964998744</v>
@@ -22008,7 +21780,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.582066942173848</v>
+        <v>1.595803350175343</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.408535149913392</v>
@@ -22097,7 +21869,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.595413048278887</v>
+        <v>1.606198674091011</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.426182700778313</v>
@@ -22186,7 +21958,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.593785005189275</v>
+        <v>1.606238597267598</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.457677685262139</v>
@@ -22275,7 +22047,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.590478774280105</v>
+        <v>1.599047406027652</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.357220952530058</v>
@@ -22561,7 +22333,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.836075343678363</v>
+        <v>1.835452102683954</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.830211821232004</v>
@@ -22650,7 +22422,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.815888845854668</v>
+        <v>1.805327744746243</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.851245880879019</v>
@@ -22739,7 +22511,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.795424597689994</v>
+        <v>1.797893485379449</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.995524543283522</v>
@@ -22828,7 +22600,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.787820903695028</v>
+        <v>1.788962929428191</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.026772954128871</v>
@@ -22917,7 +22689,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.775487636648643</v>
+        <v>1.773706183635299</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.032402165759006</v>
@@ -23006,7 +22778,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.779295077632765</v>
+        <v>1.774722315580626</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.054382857668444</v>
@@ -23095,7 +22867,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.787745890519157</v>
+        <v>1.787312032923015</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.026800222338634</v>
@@ -23184,7 +22956,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.78352168047442</v>
+        <v>1.785713997442702</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.077627960803597</v>
@@ -23273,7 +23045,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.777979952244384</v>
+        <v>1.783600746080985</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.917454455507407</v>
@@ -23362,7 +23134,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.784804579557258</v>
+        <v>1.788329940517725</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.952508078387564</v>
@@ -23451,7 +23223,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.789911264908089</v>
+        <v>1.800917451905135</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.020113149750201</v>
@@ -23540,7 +23312,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.782321812865611</v>
+        <v>1.793877618674567</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.091435885211819</v>
@@ -23629,7 +23401,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.775728785681168</v>
+        <v>1.785861660085172</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.913968319845786</v>
@@ -23718,7 +23490,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.787877217974113</v>
+        <v>1.797891289092103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.010476458070543</v>
@@ -23807,7 +23579,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.786042424786145</v>
+        <v>1.798938904528638</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.070141221513288</v>
@@ -23896,7 +23668,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.793765576576009</v>
+        <v>1.806646515881365</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.8107116534112</v>
@@ -23985,7 +23757,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.832350641704774</v>
+        <v>1.845851032415189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.937939960955179</v>
@@ -24074,7 +23846,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.838625269660675</v>
+        <v>1.853206218406818</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.211639549821615</v>
@@ -24163,7 +23935,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.852563468940824</v>
+        <v>1.867566769637682</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.446654626648963</v>
@@ -24252,7 +24024,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.873323474468553</v>
+        <v>1.892697260744805</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.308739997506635</v>
@@ -24341,7 +24113,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.879975800252186</v>
+        <v>1.903654883463595</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.423416978067638</v>
@@ -24430,7 +24202,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.873157114344887</v>
+        <v>1.895303829749982</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.739073896797809</v>
@@ -24519,7 +24291,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.886388002716827</v>
+        <v>1.905749112263496</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.09839229202414</v>
@@ -24608,7 +24380,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.88792121497366</v>
+        <v>1.910060475238652</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.225623195310138</v>
@@ -24697,7 +24469,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.875141716455692</v>
+        <v>1.890616117249814</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.966752714040615</v>
@@ -24786,7 +24558,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.884646061030507</v>
+        <v>1.894606753186158</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.019357743151946</v>
@@ -24875,7 +24647,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.899028069247035</v>
+        <v>1.905463405035926</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.718771159618105</v>
@@ -24964,7 +24736,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.888717402879977</v>
+        <v>1.88600585067556</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.737804748450753</v>
@@ -25053,7 +24825,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.886050906953845</v>
+        <v>1.883977317169337</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.040582023959089</v>
@@ -25142,7 +24914,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.886789057873064</v>
+        <v>1.882658929779676</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.093570077965442</v>
@@ -25231,7 +25003,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.887186891694398</v>
+        <v>1.878476646656462</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.019019177218521</v>
@@ -25320,7 +25092,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.880446502130763</v>
+        <v>1.871268434137748</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.235886706097055</v>
@@ -25409,7 +25181,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.878801568965396</v>
+        <v>1.863329584456823</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.472342288876994</v>
@@ -25498,7 +25270,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.863124059905975</v>
+        <v>1.845685000598807</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.349262338412019</v>
@@ -25587,7 +25359,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.856043644894084</v>
+        <v>1.834173649346102</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.557290248532861</v>
@@ -25676,7 +25448,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.849644415173825</v>
+        <v>1.821761013707602</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.257623894203229</v>
@@ -25765,7 +25537,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.841575204588882</v>
+        <v>1.806582547303909</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.245994529374484</v>
@@ -25854,7 +25626,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.824575187309926</v>
+        <v>1.789806011372783</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.628124650249192</v>
@@ -25943,7 +25715,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.825648991621624</v>
+        <v>1.789826545795491</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.802900898504516</v>
@@ -26032,7 +25804,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.838059099785208</v>
+        <v>1.803526032642329</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.870783326905232</v>
@@ -26121,7 +25893,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.836892676756388</v>
+        <v>1.8054563683241</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.167652525968774</v>
@@ -26210,7 +25982,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.838218089386326</v>
+        <v>1.805837502569884</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.563139106003653</v>
@@ -26299,7 +26071,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.853179847671544</v>
+        <v>1.829282883231124</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.728065338171709</v>
@@ -26388,7 +26160,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.846412892918168</v>
+        <v>1.830671016238629</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.284985069021173</v>
@@ -26477,7 +26249,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.843364482141496</v>
+        <v>1.827957602303463</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.741828003625284</v>
@@ -26566,7 +26338,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.848548304791808</v>
+        <v>1.830071823531779</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.466382347402769</v>
@@ -26655,7 +26427,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.834398718840326</v>
+        <v>1.819906562553637</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.242327979031183</v>
@@ -26744,7 +26516,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.843698660422315</v>
+        <v>1.831734502829368</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.643132612292171</v>
@@ -26833,7 +26605,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.829878158407503</v>
+        <v>1.827036785566442</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.583498026076166</v>
@@ -26922,7 +26694,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.834726648105566</v>
+        <v>1.832060673840987</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.445840696521517</v>
@@ -27011,7 +26783,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.834488185405253</v>
+        <v>1.835519619855424</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.605949538463636</v>
@@ -27100,7 +26872,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.844761544253618</v>
+        <v>1.854301384106612</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.263858471508213</v>
@@ -27189,7 +26961,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.835024033406819</v>
+        <v>1.844911525566252</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.802447870268982</v>
@@ -27278,7 +27050,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.830200535790975</v>
+        <v>1.842595850651505</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.631452022691128</v>
@@ -27367,7 +27139,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.835595853312238</v>
+        <v>1.849128960972322</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.765096750873476</v>
@@ -27456,7 +27228,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.84070043096743</v>
+        <v>1.85590065833623</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.601633892139556</v>
@@ -27545,7 +27317,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.833014488798833</v>
+        <v>1.845562552600301</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.78804021315556</v>
@@ -27634,7 +27406,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.826670139588947</v>
+        <v>1.84086528935709</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.866553884726002</v>
@@ -27723,7 +27495,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.834018441562488</v>
+        <v>1.837071969711424</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.680171858203613</v>
@@ -27812,7 +27584,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.839797113156629</v>
+        <v>1.843188370486213</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.171237190087311</v>
@@ -27901,7 +27673,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.834775300836328</v>
+        <v>1.843237174233582</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.829783928644602</v>
@@ -27990,7 +27762,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.854138626080911</v>
+        <v>1.861134309353077</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.221363449400877</v>
@@ -28079,7 +27851,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.859043751843363</v>
+        <v>1.864820582657221</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.133727440484733</v>
@@ -28168,7 +27940,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.851930582559099</v>
+        <v>1.860684609882032</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.829642256406496</v>
@@ -28257,7 +28029,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.852261204290515</v>
+        <v>1.863010322082016</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.868163018055205</v>
@@ -28346,7 +28118,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.850825944932669</v>
+        <v>1.861850361107743</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.356280204296428</v>
@@ -28435,7 +28207,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.850911939257968</v>
+        <v>1.865501493478833</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.956591628804837</v>
@@ -28524,7 +28296,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.875270578282506</v>
+        <v>1.884849065172035</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.141453973758158</v>
@@ -28613,7 +28385,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.841938495411895</v>
+        <v>1.849776664130391</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.614844658273839</v>
@@ -28702,7 +28474,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.791303363833737</v>
+        <v>1.805126414405942</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.219846282145252</v>
@@ -28791,7 +28563,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.730457730990924</v>
+        <v>1.738478873129873</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.742131573243615</v>
@@ -28880,7 +28652,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.714467944448426</v>
+        <v>1.722358065608852</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.721040573730337</v>
@@ -28969,7 +28741,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.716323557275484</v>
+        <v>1.727681364636419</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.722047594197253</v>
@@ -29058,7 +28830,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.702359761133085</v>
+        <v>1.714881617539916</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.699772215171093</v>
@@ -29147,7 +28919,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.695244354929797</v>
+        <v>1.710712437964864</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.752222027240944</v>
@@ -29236,7 +29008,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.698348700675435</v>
+        <v>1.71451809081476</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.720460600028009</v>
@@ -29325,7 +29097,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.68926498272425</v>
+        <v>1.704703346404526</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.729877097570929</v>
@@ -29414,7 +29186,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.683716065787938</v>
+        <v>1.69502372998152</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.699428554139867</v>
@@ -29503,7 +29275,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.698319372268733</v>
+        <v>1.709575442665122</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.80149927385964</v>
@@ -29592,7 +29364,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.690653783204219</v>
+        <v>1.700079434840245</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.712821235030538</v>
@@ -29681,7 +29453,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.684549069844448</v>
+        <v>1.68966622198375</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.680355645895527</v>
@@ -29967,7 +29739,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.701678975037012</v>
+        <v>1.657221282201131</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.229320736175446</v>
@@ -30056,7 +29828,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.693574553789731</v>
+        <v>1.640549445221033</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.690006466426269</v>
@@ -30145,7 +29917,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.670208852861388</v>
+        <v>1.626531493733584</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.660624980969437</v>
@@ -30234,7 +30006,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.679362838004698</v>
+        <v>1.640605109226452</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.893172519921574</v>
@@ -30323,7 +30095,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.683712259394736</v>
+        <v>1.646289236023982</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.64420599085522</v>
@@ -30412,7 +30184,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.696891366131996</v>
+        <v>1.655708170195503</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.684972341458683</v>
@@ -30501,7 +30273,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.69871144363353</v>
+        <v>1.648743604754757</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.874464053451721</v>
@@ -30590,7 +30362,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.722400455776809</v>
+        <v>1.671825842440495</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.831764498848923</v>
@@ -30679,7 +30451,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.72926522465494</v>
+        <v>1.678050598243867</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.864121580328495</v>
@@ -30768,7 +30540,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.730374246078165</v>
+        <v>1.676910591633525</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.094491890719384</v>
@@ -30857,7 +30629,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.720903530390661</v>
+        <v>1.673298657969013</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.164572907063253</v>
@@ -30946,7 +30718,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719104499134406</v>
+        <v>1.676135556879221</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.799028303734669</v>
@@ -31035,7 +30807,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.717231462083867</v>
+        <v>1.677505028095509</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.92122240640561</v>
@@ -31124,7 +30896,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.725466260194767</v>
+        <v>1.685726501492305</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.934609275497633</v>
@@ -31213,7 +30985,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.723351296732006</v>
+        <v>1.69187723778158</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.955351617974069</v>
@@ -31302,7 +31074,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.719504189040083</v>
+        <v>1.690600379709546</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.91149012065788</v>
@@ -31391,7 +31163,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.737538889453661</v>
+        <v>1.703317455043049</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.806998249677398</v>
@@ -31480,7 +31252,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.741170679008639</v>
+        <v>1.708855393396936</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.741264032345611</v>
@@ -31569,7 +31341,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.740388092530443</v>
+        <v>1.70497027780675</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.531550494763763</v>
@@ -31658,7 +31430,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.747704640587034</v>
+        <v>1.708593078304707</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.603001841264267</v>
@@ -31747,7 +31519,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.745007218611515</v>
+        <v>1.696415036876266</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.719086393051819</v>
@@ -31836,7 +31608,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.741793962313995</v>
+        <v>1.70140928130432</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.907695430644131</v>
@@ -31925,7 +31697,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.736874250085116</v>
+        <v>1.694612152426525</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.75066559812118</v>
@@ -32014,7 +31786,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.731127608184881</v>
+        <v>1.688307453427027</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.867345857835589</v>
@@ -32103,7 +31875,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.720047632455537</v>
+        <v>1.678743561723616</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.315853793456534</v>
@@ -32192,7 +31964,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.7376986477866</v>
+        <v>1.696285641333262</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.944773434063929</v>
@@ -32281,7 +32053,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.743126063202129</v>
+        <v>1.700402812722852</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.56527329868233</v>
@@ -32370,7 +32142,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.738451821599244</v>
+        <v>1.677379228268786</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.339356631287374</v>
@@ -32459,7 +32231,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.738925582751201</v>
+        <v>1.680627616773631</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.613808101290942</v>
@@ -32548,7 +32320,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.754043733016578</v>
+        <v>1.692685791251969</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.136430751485316</v>
@@ -32637,7 +32409,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758784184421397</v>
+        <v>1.696455223431964</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.461251520940168</v>
@@ -32726,7 +32498,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.759057630811705</v>
+        <v>1.698905845525381</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.478968179555995</v>
@@ -32815,7 +32587,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.765107193500803</v>
+        <v>1.6991836364145</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.771277245412364</v>
@@ -32904,7 +32676,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.767789611567605</v>
+        <v>1.704046475069916</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.627808403869672</v>
@@ -32993,7 +32765,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.75366461908087</v>
+        <v>1.688308858162819</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.144024945884413</v>
@@ -33082,7 +32854,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.751812532267974</v>
+        <v>1.689176111106787</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.674685454301636</v>
@@ -33171,7 +32943,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.753332802727215</v>
+        <v>1.69084211481167</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.410834779284018</v>
@@ -33260,7 +33032,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.746425017280395</v>
+        <v>1.685000301363766</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.474850706585814</v>
@@ -33349,7 +33121,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.742948071215552</v>
+        <v>1.680162579048387</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.662264301078701</v>
@@ -33438,7 +33210,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.745597431851532</v>
+        <v>1.6845957017268</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.470348703326679</v>
@@ -33527,7 +33299,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.745016074667897</v>
+        <v>1.681806631442751</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.659811363960003</v>
@@ -33616,7 +33388,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.743673256079757</v>
+        <v>1.683049496828077</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.768106453205306</v>
@@ -33705,7 +33477,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.755276422605338</v>
+        <v>1.708920765457489</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.166381193161456</v>
@@ -33794,7 +33566,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.724853484534304</v>
+        <v>1.682289481795555</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.769246323813533</v>
@@ -33883,7 +33655,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.710628435889607</v>
+        <v>1.669241338014866</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.679761297046779</v>
@@ -33972,7 +33744,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.703786664422613</v>
+        <v>1.659247648720451</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.4237616845536</v>
@@ -34061,7 +33833,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.66414794259251</v>
+        <v>1.639168412418744</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.89203724615467</v>
@@ -34150,7 +33922,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.66358948527824</v>
+        <v>1.640848034080084</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.77449701961813</v>
@@ -34239,7 +34011,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.651006674762636</v>
+        <v>1.630544381468599</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.7840229334618</v>
@@ -34328,7 +34100,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.659776366007121</v>
+        <v>1.644723411042468</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.720127857492107</v>
@@ -34417,7 +34189,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657884244096578</v>
+        <v>1.641164329569474</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.907061308202312</v>
@@ -34506,7 +34278,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.657115400126147</v>
+        <v>1.640950052416753</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.876523100041717</v>
@@ -34595,7 +34367,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.650233799399969</v>
+        <v>1.627946366707187</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.916280184480427</v>
@@ -34684,7 +34456,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.649026564747617</v>
+        <v>1.633767328230217</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.848121691548657</v>
@@ -34773,7 +34545,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.654906419780138</v>
+        <v>1.638703884688593</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.863967241000657</v>
@@ -34862,7 +34634,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.663805802582941</v>
+        <v>1.644786464656557</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.799852654589394</v>
@@ -34951,7 +34723,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.642210085296132</v>
+        <v>1.623077011362864</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.830137365840852</v>
@@ -35040,7 +34812,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.632263390956004</v>
+        <v>1.612841650719192</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.744456785996678</v>
@@ -35129,7 +34901,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.646497675422864</v>
+        <v>1.620294293974138</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.804464632612874</v>
@@ -35218,7 +34990,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.651337173708476</v>
+        <v>1.621963636186405</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.931315485153851</v>
@@ -35307,7 +35079,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.652543519979133</v>
+        <v>1.615014285041574</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.547400551520288</v>
@@ -35396,7 +35168,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.680740606139957</v>
+        <v>1.630793122341788</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.098777032468198</v>
@@ -35485,7 +35257,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.685403898379989</v>
+        <v>1.637726975637746</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.086424715745252</v>
@@ -35574,7 +35346,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.674094088710203</v>
+        <v>1.622254289451799</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.977466293984398</v>
@@ -35663,7 +35435,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.669017537020982</v>
+        <v>1.617811676228363</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.985174972981937</v>
@@ -35752,7 +35524,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.663559749683198</v>
+        <v>1.61534246262231</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.890783521980402</v>
@@ -35841,7 +35613,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.656839914363402</v>
+        <v>1.609743099298085</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.133650015661827</v>
@@ -35930,7 +35702,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.672330856737618</v>
+        <v>1.626946223395479</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.160705013794861</v>
@@ -36019,7 +35791,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.643364758225002</v>
+        <v>1.597684418295229</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.097162507854086</v>
@@ -36108,7 +35880,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.623215055727146</v>
+        <v>1.578222228259823</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.967923081699815</v>
@@ -36197,7 +35969,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.59765777701804</v>
+        <v>1.545969205714643</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.326801325365362</v>
@@ -36286,7 +36058,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.593547052269035</v>
+        <v>1.540232533365504</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.328680829737853</v>
@@ -36375,7 +36147,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.595947587899733</v>
+        <v>1.54733234564983</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.380723502843097</v>
@@ -36464,7 +36236,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.585669843418368</v>
+        <v>1.537894505116475</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.413253765914458</v>
@@ -36553,7 +36325,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.572737152732832</v>
+        <v>1.529644058542426</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.38355965516877</v>
@@ -36642,7 +36414,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.577545860800389</v>
+        <v>1.542989968663584</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.39723191810607</v>
@@ -36731,7 +36503,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.576032204523188</v>
+        <v>1.541728870148664</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.422205946310728</v>
@@ -36820,7 +36592,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.574617890589332</v>
+        <v>1.530858137109992</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.450833274070296</v>
@@ -36909,7 +36681,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.579443735483647</v>
+        <v>1.53655964800582</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.395666480046301</v>
@@ -36998,7 +36770,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.571365479815734</v>
+        <v>1.526752806719958</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.407821041173527</v>
@@ -37087,7 +36859,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.568392541076348</v>
+        <v>1.517854932312322</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.441369752731529</v>
@@ -37373,7 +37145,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.528568022874694</v>
+        <v>1.485323404886861</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.831352543090289</v>
@@ -37462,7 +37234,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.467770671303833</v>
+        <v>1.417812941398938</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.948334145496121</v>
@@ -37551,7 +37323,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.429264962504687</v>
+        <v>1.405656224829769</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.912410252832789</v>
@@ -37640,7 +37412,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.433897270560411</v>
+        <v>1.408135852941395</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.912270925589517</v>
@@ -37729,7 +37501,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.441120412946627</v>
+        <v>1.414714613664531</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.926056906632083</v>
@@ -37818,7 +37590,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.450090736461971</v>
+        <v>1.419055160580304</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.920047843510255</v>
@@ -37907,7 +37679,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.458755400473575</v>
+        <v>1.42467767071664</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.895750423103033</v>
@@ -37996,7 +37768,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.459512109219356</v>
+        <v>1.423439431617543</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.922737657531727</v>
@@ -38085,7 +37857,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.449230385071102</v>
+        <v>1.423776619635375</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.932043096894038</v>
@@ -38174,7 +37946,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.455968548862208</v>
+        <v>1.430291032750915</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.86209623698133</v>
@@ -38263,7 +38035,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443830336832588</v>
+        <v>1.42527158994519</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.910655307301777</v>
@@ -38352,7 +38124,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.4422285399066</v>
+        <v>1.425044709904888</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.924981606243298</v>
@@ -38441,7 +38213,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.441928984308825</v>
+        <v>1.427712514917181</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.895764996124945</v>
@@ -38530,7 +38302,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.464555212252463</v>
+        <v>1.451981211233019</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.858227281647606</v>
@@ -38619,7 +38391,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465570609463728</v>
+        <v>1.456024163774717</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.871953225566897</v>
@@ -38708,7 +38480,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.458572401194061</v>
+        <v>1.456301682498856</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.800564779579367</v>
@@ -38797,7 +38569,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574937151628868</v>
+        <v>1.543125175884192</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.872206365471228</v>
@@ -38886,7 +38658,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606686049203849</v>
+        <v>1.566183482150548</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.921822912533513</v>
@@ -38975,7 +38747,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.608336723728451</v>
+        <v>1.566578957231786</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.913268263148165</v>
@@ -39064,7 +38836,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.603910528118148</v>
+        <v>1.566415491829192</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.870395970374984</v>
@@ -39153,7 +38925,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60831857030089</v>
+        <v>1.571985939166489</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.934106821868436</v>
@@ -39242,7 +39014,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.606646820322397</v>
+        <v>1.577383857455744</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.719934497090765</v>
@@ -39331,7 +39103,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.625391466351446</v>
+        <v>1.589338881075073</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.403351418200261</v>
@@ -39420,7 +39192,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.644034640260025</v>
+        <v>1.594937224536597</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.975257291859619</v>
@@ -39509,7 +39281,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.653809264112368</v>
+        <v>1.598147653940717</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.095567361530008</v>
@@ -39598,7 +39370,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.6911708508507</v>
+        <v>1.624671580534939</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.387316804232819</v>
@@ -39687,7 +39459,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.706039043883348</v>
+        <v>1.635746671031362</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.286430904357093</v>
@@ -39776,7 +39548,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.715057908118295</v>
+        <v>1.635691649983029</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.423507325535292</v>
@@ -39865,7 +39637,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.698829964186367</v>
+        <v>1.618944064465683</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.296383616356972</v>
@@ -39954,7 +39726,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.699564920402528</v>
+        <v>1.617231467471177</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.965975030496674</v>
@@ -40043,7 +39815,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.695547327015422</v>
+        <v>1.617090098721548</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.743151260218163</v>
@@ -40132,7 +39904,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.701846180495348</v>
+        <v>1.623117209890435</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.637395718162279</v>
@@ -40221,7 +39993,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.700456916958139</v>
+        <v>1.621163742538718</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.64497093938433</v>
@@ -40310,7 +40082,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.69234212987537</v>
+        <v>1.616422786257671</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.904487848583576</v>
@@ -40399,7 +40171,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686653059842263</v>
+        <v>1.609104588468909</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.016656424555584</v>
@@ -40488,7 +40260,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.689041150696229</v>
+        <v>1.615815960136882</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.371152418800861</v>
@@ -40577,7 +40349,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.680979626264671</v>
+        <v>1.60986327975233</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.881397994850544</v>
@@ -40666,7 +40438,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.686442089145403</v>
+        <v>1.611344202890784</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.390479964965457</v>
@@ -40755,7 +40527,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.696497511233408</v>
+        <v>1.621949555390129</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.118663371400793</v>
@@ -40844,7 +40616,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.684178897539542</v>
+        <v>1.61665670957857</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.397897784656809</v>
@@ -40933,7 +40705,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.641922102893576</v>
+        <v>1.585695191028313</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.90505749085474</v>
@@ -41022,7 +40794,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.64285021320339</v>
+        <v>1.581426492154667</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.95869898900914</v>
@@ -41111,7 +40883,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644421922572639</v>
+        <v>1.590015025565609</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.723697983687769</v>
@@ -41200,7 +40972,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.658224579273</v>
+        <v>1.60809812692454</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.845524284384114</v>
@@ -41289,7 +41061,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655592446117036</v>
+        <v>1.606075188132685</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.991126991619808</v>
@@ -41378,7 +41150,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663082835193333</v>
+        <v>1.613404089792415</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.80892092982879</v>
@@ -41467,7 +41239,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.629804422867924</v>
+        <v>1.591687441131303</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.734741644237904</v>
@@ -41556,7 +41328,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.623495102553275</v>
+        <v>1.59056822331047</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.686101995838894</v>
@@ -41645,7 +41417,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.627890157671086</v>
+        <v>1.596669538666823</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.655077607963498</v>
@@ -41734,7 +41506,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.641442946703169</v>
+        <v>1.608253803942467</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.769095284780583</v>
@@ -41823,7 +41595,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.637977712945017</v>
+        <v>1.601476592867444</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.721490399863938</v>
@@ -41912,7 +41684,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.644090662961015</v>
+        <v>1.605422903805906</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.624246857576547</v>
@@ -42001,7 +41773,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.636795015327266</v>
+        <v>1.59974898369565</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.724351835970661</v>
@@ -42090,7 +41862,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.630864824431012</v>
+        <v>1.598721842743163</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.725280058980476</v>
@@ -42179,7 +41951,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.644972690316297</v>
+        <v>1.610933215798633</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.421985880903297</v>
@@ -42268,7 +42040,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.675584813430939</v>
+        <v>1.641163737364041</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.629061466268952</v>
@@ -42357,7 +42129,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.663877688362841</v>
+        <v>1.633636648899182</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.618317078539799</v>
@@ -42446,7 +42218,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.655053707681435</v>
+        <v>1.624500055719871</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.690564440060347</v>
@@ -42535,7 +42307,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.653467432628328</v>
+        <v>1.627535527291602</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.580051634633559</v>
@@ -42624,7 +42396,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.659926681718615</v>
+        <v>1.632081971458667</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.639205106477422</v>
@@ -42713,7 +42485,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.660721483013117</v>
+        <v>1.629301245138979</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.74279778458612</v>
@@ -42802,7 +42574,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.689639657655452</v>
+        <v>1.652905572336622</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.888559428209677</v>
@@ -42891,7 +42663,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.705292527251968</v>
+        <v>1.671020064788042</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.719468328756093</v>
@@ -42980,7 +42752,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.675636947745704</v>
+        <v>1.638346203178678</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.835772066366426</v>
@@ -43069,7 +42841,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.631979534717205</v>
+        <v>1.607556792752496</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.779206194343148</v>
@@ -43158,7 +42930,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.607439728695855</v>
+        <v>1.586188397856878</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.635693816020611</v>
@@ -43247,7 +43019,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.591478226394799</v>
+        <v>1.568565046395537</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.616154534317923</v>
@@ -43336,7 +43108,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.573805032538442</v>
+        <v>1.552931715562049</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.698179388048445</v>
@@ -43425,7 +43197,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.536353501881483</v>
+        <v>1.504399532437924</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.315355890590026</v>
@@ -43514,7 +43286,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.451282842196031</v>
+        <v>1.42711925851469</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.881186282530573</v>
@@ -43603,7 +43375,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.405490624832066</v>
+        <v>1.364383877702904</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.907470371040682</v>
@@ -43692,7 +43464,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.387122023614277</v>
+        <v>1.341597413366991</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.956286923482663</v>
@@ -43781,7 +43553,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.3823538740485</v>
+        <v>1.338446203601349</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.95298548292757</v>
@@ -43870,7 +43642,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.377003098876485</v>
+        <v>1.333320597844925</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.96395402808761</v>
@@ -43959,7 +43731,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.374085310144343</v>
+        <v>1.330050032965051</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.009322712559065</v>
@@ -44048,7 +43820,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.371701643161999</v>
+        <v>1.325915932897476</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.008428601725926</v>
@@ -44137,7 +43909,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.366612720918304</v>
+        <v>1.319731898146854</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.038326474042992</v>
@@ -44226,7 +43998,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.364548594508247</v>
+        <v>1.314319539980394</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.039978191977183</v>
@@ -44315,7 +44087,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.368397472671912</v>
+        <v>1.316636132936428</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.074808099320134</v>
@@ -44404,7 +44176,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.369919761734314</v>
+        <v>1.316825352339486</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.069276327842497</v>
@@ -44493,7 +44265,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.367249894291516</v>
+        <v>1.312434243209405</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.033582162775531</v>
@@ -44779,7 +44551,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.775689566974856</v>
+        <v>1.815312092128847</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.198831456048395</v>
@@ -44868,7 +44640,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.660920822841446</v>
+        <v>1.68478977409927</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.017287596545905</v>
@@ -44957,7 +44729,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.591192119057011</v>
+        <v>1.645705810009153</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.970846132354395</v>
@@ -45046,7 +44818,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.576991400764716</v>
+        <v>1.631846762571276</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.981656258623591</v>
@@ -45135,7 +44907,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.566668744347663</v>
+        <v>1.624315060347705</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.009074227465353</v>
@@ -45224,7 +44996,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.56863017658793</v>
+        <v>1.627565262864722</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.96576032574397</v>
@@ -45313,7 +45085,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.575591633429495</v>
+        <v>1.637796822101955</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.991274347954118</v>
@@ -45402,7 +45174,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.569780578148033</v>
+        <v>1.633921980351037</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.000534833129868</v>
@@ -45491,7 +45263,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.564380651144115</v>
+        <v>1.625015887121878</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.009153884967669</v>
@@ -45580,7 +45352,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560451201502554</v>
+        <v>1.618159000199694</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.996026437923796</v>
@@ -45669,7 +45441,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.568823955276447</v>
+        <v>1.625968325245557</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.976726939855175</v>
@@ -45758,7 +45530,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.566767177929717</v>
+        <v>1.624974309165004</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.009338385578675</v>
@@ -45847,7 +45619,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565038242305215</v>
+        <v>1.620818606262725</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.977877282198507</v>
@@ -45936,7 +45708,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562882792074943</v>
+        <v>1.617755339641847</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.972961734277696</v>
@@ -46025,7 +45797,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555811596131408</v>
+        <v>1.610282131971905</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.965069408949719</v>
@@ -46114,7 +45886,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.5569616517877</v>
+        <v>1.608481845570163</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.931836680720543</v>
@@ -46203,7 +45975,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.665129823007524</v>
+        <v>1.710197922493639</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.963198739123248</v>
@@ -46292,7 +46064,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.737061238411956</v>
+        <v>1.774743936898712</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.266771551382332</v>
@@ -46381,7 +46153,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.76963455248457</v>
+        <v>1.809083588558967</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.883668862969379</v>
@@ -46470,7 +46242,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.801475101095039</v>
+        <v>1.834653318833604</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.165361901649366</v>
@@ -46559,7 +46331,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.812050759844048</v>
+        <v>1.840002042942371</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.429287123494874</v>
@@ -46648,7 +46420,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.815303032688651</v>
+        <v>1.839016320914344</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.256082610028878</v>
@@ -46737,7 +46509,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.834353307773171</v>
+        <v>1.854809370904845</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.157251176817968</v>
@@ -46826,7 +46598,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.847604933143278</v>
+        <v>1.873173470166215</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.029543309985562</v>
@@ -46915,7 +46687,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.827192214559904</v>
+        <v>1.856971222697571</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.39259688865502</v>
@@ -47004,7 +46776,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.835964971849195</v>
+        <v>1.866753425646017</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.316976761533311</v>
@@ -47093,7 +46865,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.851989048209225</v>
+        <v>1.881132244757806</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.512226299980826</v>
@@ -47182,7 +46954,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.834544566999747</v>
+        <v>1.858440104898791</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.227406094750923</v>
@@ -47271,7 +47043,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.835972768052509</v>
+        <v>1.860151719960668</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.370187800126805</v>
@@ -47360,7 +47132,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.843234397692943</v>
+        <v>1.86788700718078</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.467272216738297</v>
@@ -47449,7 +47221,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.852951803875817</v>
+        <v>1.876028077980562</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.223267299724513</v>
@@ -47538,7 +47310,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.833308041258483</v>
+        <v>1.858968282662021</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.237328208346455</v>
@@ -47627,7 +47399,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.825534558207349</v>
+        <v>1.840606723637823</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.000642137343743</v>
@@ -47716,7 +47488,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.795673577131649</v>
+        <v>1.819167286649798</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.965349790207956</v>
@@ -47805,7 +47577,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.78882549645868</v>
+        <v>1.811212882001331</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.830837084015499</v>
@@ -47894,7 +47666,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.777213390601538</v>
+        <v>1.796250346342088</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.934099693306052</v>
@@ -47983,7 +47755,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.74450016928997</v>
+        <v>1.762609161183893</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.113150876725618</v>
@@ -48072,7 +47844,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.736321723987974</v>
+        <v>1.756522857847492</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.047892075362486</v>
@@ -48161,7 +47933,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.736102949604957</v>
+        <v>1.751620945228904</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.999515438100779</v>
@@ -48250,7 +48022,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.755286201465906</v>
+        <v>1.770566605605644</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.931704974226963</v>
@@ -48339,7 +48111,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.749167289488633</v>
+        <v>1.762667410668935</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.119355111526579</v>
@@ -48428,7 +48200,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.748436608968447</v>
+        <v>1.756982322173456</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.109833022015643</v>
@@ -48517,7 +48289,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.764004642414886</v>
+        <v>1.779798690219866</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.879088898305646</v>
@@ -48606,7 +48378,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.736200172183676</v>
+        <v>1.758978511239846</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.114055049440761</v>
@@ -48695,7 +48467,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.737502019582393</v>
+        <v>1.763976121292148</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.135004902381295</v>
@@ -48784,7 +48556,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.736893096231014</v>
+        <v>1.761062448955793</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.031144582799006</v>
@@ -48873,7 +48645,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.664032891305189</v>
+        <v>1.694115053484076</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.336138498401097</v>
@@ -48962,7 +48734,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636624499813107</v>
+        <v>1.669710456578033</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.278794536199569</v>
@@ -49051,7 +48823,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.613211108759812</v>
+        <v>1.650175790935254</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.430059690345178</v>
@@ -49140,7 +48912,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.61747266463911</v>
+        <v>1.65688724988265</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.37065960164692</v>
@@ -49229,7 +49001,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619385486841607</v>
+        <v>1.66167621375947</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.33386491425008</v>
@@ -49318,7 +49090,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.633140939776257</v>
+        <v>1.676617469638937</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.292327480791678</v>
@@ -49407,7 +49179,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.612802063633288</v>
+        <v>1.651640186453418</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.385356485329147</v>
@@ -49496,7 +49268,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.60579222511672</v>
+        <v>1.649016625948527</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.310509543799948</v>
@@ -49585,7 +49357,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.607265180457323</v>
+        <v>1.65467698004568</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.370932701439946</v>
@@ -49674,7 +49446,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.609035742525323</v>
+        <v>1.656987648084852</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.402679224295501</v>
@@ -49763,7 +49535,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.540942139009962</v>
+        <v>1.583920608414325</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.128189764346459</v>
@@ -49852,7 +49624,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.499068199556563</v>
+        <v>1.550555069992984</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.084010894832686</v>
@@ -49941,7 +49713,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.502962083686392</v>
+        <v>1.553802353257877</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.082422667935277</v>
@@ -50030,7 +49802,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.49105435704295</v>
+        <v>1.538306123596443</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.069826810155748</v>
@@ -50119,7 +49891,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.484821977253177</v>
+        <v>1.529101634233034</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.097437239582941</v>
@@ -50208,7 +49980,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.527264692626591</v>
+        <v>1.576979264807937</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.042775046948173</v>
@@ -50297,7 +50069,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.558826405358833</v>
+        <v>1.612976228030834</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.052747684263493</v>
@@ -50386,7 +50158,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.567996706812536</v>
+        <v>1.621506177915895</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.065490850192687</v>
@@ -50475,7 +50247,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.562292214684958</v>
+        <v>1.616169607803176</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.077813013631332</v>
@@ -50564,7 +50336,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.566141748817336</v>
+        <v>1.621827105835632</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.038073219457329</v>
@@ -50653,7 +50425,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.573498206578705</v>
+        <v>1.632716855776903</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.071876498062206</v>
@@ -50742,7 +50514,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.596286353325244</v>
+        <v>1.656086130469206</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.081415889495983</v>
@@ -50831,7 +50603,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.551770534002208</v>
+        <v>1.600245511918472</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.084977419400216</v>
@@ -50920,7 +50692,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.504598713115987</v>
+        <v>1.551343202399927</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.146863159146507</v>
@@ -51009,7 +50781,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.481177590880937</v>
+        <v>1.512681828844709</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.104984219887761</v>
@@ -51098,7 +50870,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.525090498096993</v>
+        <v>1.550470621264143</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.277640496907192</v>
@@ -51187,7 +50959,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.545370409040422</v>
+        <v>1.570358208695477</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.455104956843405</v>
@@ -51276,7 +51048,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.536726078568779</v>
+        <v>1.55836387889941</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.611257581212275</v>
@@ -51365,7 +51137,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.532582464505743</v>
+        <v>1.556325732616712</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.601590694758429</v>
@@ -51454,7 +51226,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.540782107684116</v>
+        <v>1.567560018146394</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.577949228416377</v>
@@ -51543,7 +51315,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.548575002572562</v>
+        <v>1.571818479755489</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.542035871371549</v>
@@ -51632,7 +51404,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.544486516456769</v>
+        <v>1.561334701642511</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.553440833485944</v>
@@ -51721,7 +51493,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.55352669836716</v>
+        <v>1.567106629169626</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.583816432148954</v>
@@ -51810,7 +51582,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.549991201785327</v>
+        <v>1.563096723092643</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.553066424374447</v>
@@ -51899,7 +51671,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.544318468097536</v>
+        <v>1.551845511644407</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.561794459603118</v>
